--- a/inspire/GEO-DCAT-AP-Profile.xlsx
+++ b/inspire/GEO-DCAT-AP-Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="875">
   <si>
     <t>uri schema</t>
   </si>
@@ -2590,6 +2590,70 @@
   </si>
   <si>
     <t>http://inspire.ec.europa.eu/metadata-codelist/SpatialDataServiceType/{waarde}</t>
+  </si>
+  <si>
+    <t>Inspire heeft alleen een mapping naar de description van de dataset</t>
+  </si>
+  <si>
+    <t>SpatialDatasetEncoding</t>
+  </si>
+  <si>
+    <t>Functioncode = "download", "offer", "offlineAccess". Bijzonder: het lijkt erop dat "download" een andere betekenis heeft gekregen in de TG (!)</t>
+  </si>
+  <si>
+    <t>Voor zover er een filetype is dat overeen komt. Uitdaging is dat het een vrij tekstveld kan zijn OF een gestructureerd veld via een anchor</t>
+  </si>
+  <si>
+    <t>ConditionsApplyingToAccessAndUse</t>
+  </si>
+  <si>
+    <t>Documentatie alleen op dataset-niveau</t>
+  </si>
+  <si>
+    <t>ResourceLocatore</t>
+  </si>
+  <si>
+    <t>Functioncode = "download", maar lijkt wel een TG aanpassing, definitie lijkt iets anders te suggereren</t>
+  </si>
+  <si>
+    <t>Taal op niveau van dataset</t>
+  </si>
+  <si>
+    <t>Op niveau van dataset</t>
+  </si>
+  <si>
+    <t>Voor zover mediatype overeen komt. Uitdaging is dat het een vrij tekstveld mag zijn</t>
+  </si>
+  <si>
+    <t>dct:issued alleen aanwezig op dataset-niveau</t>
+  </si>
+  <si>
+    <t>Alleen aanwezig op dataset-niveau</t>
+  </si>
+  <si>
+    <t>Titel alleen aanwezig op dataset niveau</t>
+  </si>
+  <si>
+    <t>Automatische link</t>
+  </si>
+  <si>
+    <t>MetadataDate</t>
+  </si>
+  <si>
+    <t>MetadataStandardName
+MetadataStandardVersion</t>
+  </si>
+  <si>
+    <t>Nog even uitzoeken of in DCAT-AP dit op dezelfde wijze gaat</t>
+  </si>
+  <si>
+    <t>MetadataLanguage</t>
+  </si>
+  <si>
+    <t>MetadataFileIdentifier</t>
+  </si>
+  <si>
+    <t>Indien afkomstig uit andere catalogus, anders mogelijk de URI van het CatalogRecord zelf</t>
   </si>
 </sst>
 </file>
@@ -2997,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,8 +5445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6651,8 +6715,14 @@
       <c r="L32" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>735</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>335</v>
       </c>
@@ -6686,8 +6756,14 @@
       <c r="L33" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>771</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>336</v>
       </c>
@@ -6721,8 +6797,14 @@
       <c r="L34" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>855</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>337</v>
       </c>
@@ -6753,8 +6835,11 @@
       <c r="L35" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>338</v>
       </c>
@@ -6788,8 +6873,11 @@
       <c r="L36" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>339</v>
       </c>
@@ -6820,8 +6908,11 @@
       <c r="L37" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>340</v>
       </c>
@@ -6852,8 +6943,14 @@
       <c r="L38" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>771</v>
+      </c>
+      <c r="N38" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>341</v>
       </c>
@@ -6884,8 +6981,14 @@
       <c r="L39" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>860</v>
+      </c>
+      <c r="N39" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>342</v>
       </c>
@@ -6919,8 +7022,14 @@
       <c r="L40" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>771</v>
+      </c>
+      <c r="N40" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>343</v>
       </c>
@@ -6951,8 +7060,14 @@
       <c r="L41" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>771</v>
+      </c>
+      <c r="N41" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>344</v>
       </c>
@@ -6986,8 +7101,14 @@
       <c r="L42" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>855</v>
+      </c>
+      <c r="N42" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>345</v>
       </c>
@@ -7021,8 +7142,14 @@
       <c r="L43" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>771</v>
+      </c>
+      <c r="N43" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>346</v>
       </c>
@@ -7053,8 +7180,14 @@
       <c r="L44" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>771</v>
+      </c>
+      <c r="N44" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>347</v>
       </c>
@@ -7088,8 +7221,11 @@
       <c r="L45" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>348</v>
       </c>
@@ -7123,8 +7259,14 @@
       <c r="L46" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>771</v>
+      </c>
+      <c r="N46" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>349</v>
       </c>
@@ -7158,8 +7300,14 @@
       <c r="L47" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>771</v>
+      </c>
+      <c r="N47" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>350</v>
       </c>
@@ -7190,8 +7338,14 @@
       <c r="L48" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>623</v>
+      </c>
+      <c r="N48" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>351</v>
       </c>
@@ -7225,8 +7379,11 @@
       <c r="L49" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>352</v>
       </c>
@@ -7257,8 +7414,14 @@
       <c r="L50" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="N50" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>353</v>
       </c>
@@ -7292,8 +7455,11 @@
       <c r="L51" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>354</v>
       </c>
@@ -7327,8 +7493,11 @@
       <c r="L52" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>355</v>
       </c>
@@ -7362,8 +7531,11 @@
       <c r="L53" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>356</v>
       </c>
@@ -7397,8 +7569,11 @@
       <c r="L54" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>357</v>
       </c>
@@ -7429,8 +7604,14 @@
       <c r="L55" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>873</v>
+      </c>
+      <c r="N55" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>358</v>
       </c>
@@ -7464,8 +7645,11 @@
       <c r="L56" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>360</v>
       </c>
@@ -7500,7 +7684,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>361</v>
       </c>
@@ -7535,7 +7719,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>362</v>
       </c>
@@ -7567,7 +7751,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>363</v>
       </c>
@@ -7602,7 +7786,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>364</v>
       </c>
@@ -7637,7 +7821,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>365</v>
       </c>
@@ -7672,7 +7856,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>366</v>
       </c>
@@ -7704,7 +7888,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>367</v>
       </c>

--- a/inspire/GEO-DCAT-AP-Profile.xlsx
+++ b/inspire/GEO-DCAT-AP-Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="Waardelijsten" sheetId="8" r:id="rId8"/>
     <sheet name="Waarden" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1048">
   <si>
     <t>uri schema</t>
   </si>
@@ -1571,9 +1571,6 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Een Inspire dataset heeft automatisch minimaal 1 distributie</t>
-  </si>
-  <si>
     <t>KeywordValue</t>
   </si>
   <si>
@@ -1895,12 +1892,6 @@
     <t>Atmospheric Conditions and meteorological geographical features</t>
   </si>
   <si>
-    <t>Functioncode not set</t>
-  </si>
-  <si>
-    <t>Functioncode = "information" of "search"</t>
-  </si>
-  <si>
     <t>GeographicBoundingBox</t>
   </si>
   <si>
@@ -1983,9 +1974,6 @@
   </si>
   <si>
     <t>MaintenanceInformation</t>
-  </si>
-  <si>
-    <t>Dit element zit in het "thema-specifieke" gedeelte. Er wordt gemapt vanuit INSPIRE naar de DCAT-AP originele frequency tabel</t>
   </si>
   <si>
     <t>Lineage</t>
@@ -2256,21 +2244,6 @@
     <t>URI of the dataset</t>
   </si>
   <si>
-    <t>Functioncode = "download" (following TG, GeoDCAT suggests otherwise!)</t>
-  </si>
-  <si>
-    <t>Functioncode = "offer", "offlineAccess" (GeoDCAT also includes "download", but TG states otherwise)</t>
-  </si>
-  <si>
-    <t>Only in the case that the degree of conformity is "conformant"</t>
-  </si>
-  <si>
-    <t>In GeoDCAT this property is incorrectly assigned to Distribution.</t>
-  </si>
-  <si>
-    <t>Inspire values are not restricted to a list. New values should be possible</t>
-  </si>
-  <si>
     <t>has email</t>
   </si>
   <si>
@@ -2286,12 +2259,6 @@
     <t>fn</t>
   </si>
   <si>
-    <t>Inspire values mapped to DCAT-AP-EU codelist</t>
-  </si>
-  <si>
-    <t>Inspire values mapped to IANA and Inspire codelist</t>
-  </si>
-  <si>
     <t>MetadataStandardVersion</t>
   </si>
   <si>
@@ -2475,18 +2442,12 @@
     <t>Binnenwateren</t>
   </si>
   <si>
-    <t>In case reference is made to a keyword from a taxonomy. For inspire this might be the Inspire spatial data theme taxonomy</t>
-  </si>
-  <si>
     <t>At least the Inspire spatial data theme taxonomy should be supported</t>
   </si>
   <si>
     <t>geographic bounding box</t>
   </si>
   <si>
-    <t>Inspire requires a bounding box, ISO19115 also allows a geographic identifier</t>
-  </si>
-  <si>
     <t>Provenance statement as free text</t>
   </si>
   <si>
@@ -2590,9 +2551,6 @@
   </si>
   <si>
     <t>In case a simple keyword without a taxonomy is used</t>
-  </si>
-  <si>
-    <t>The geometry should be a bounding box specified using WGS84</t>
   </si>
   <si>
     <t>date of publication</t>
@@ -2663,9 +2621,6 @@
     <t>qualifiedAttribution</t>
   </si>
   <si>
-    <t>Only for roles that are not mapped to regular properties</t>
-  </si>
-  <si>
     <t>ResponsibleOrganization</t>
   </si>
   <si>
@@ -3033,6 +2988,192 @@
   </si>
   <si>
     <t>triangulated irregular network</t>
+  </si>
+  <si>
+    <t>ResourceLocator</t>
+  </si>
+  <si>
+    <t>Functioncode = "information" of "search". At least one of the resource locator fields should be present</t>
+  </si>
+  <si>
+    <t>Functioncode not set. At least one of the resource locator fields should be present</t>
+  </si>
+  <si>
+    <t>Functioncode = "offer", "offlineAccess" (GeoDCAT also includes "download", but TG states otherwise). At least one of the resource locator fields should be present</t>
+  </si>
+  <si>
+    <t>Functioncode = "download" (following TG, GeoDCAT suggests otherwise!). At least one of the resource locator fields should be present</t>
+  </si>
+  <si>
+    <t>Mandatory for Inspire datasets that have a textual part</t>
+  </si>
+  <si>
+    <t>In case reference is made to a keyword from a taxonomy. For inspire this field is mandatory and must at least be a keyword from the Inspire spatial data theme taxonomy</t>
+  </si>
+  <si>
+    <t>In case reference is made to a keyword from a taxonomy. For inspire this field is mandatory and must be at least a keyword from the Inspire spatial data theme taxonomy</t>
+  </si>
+  <si>
+    <t>This field is mandatory for Inspire datasets</t>
+  </si>
+  <si>
+    <t>This field is mandatory for Inspire services</t>
+  </si>
+  <si>
+    <t>This field is required for Inspire and requires a bounding box, ISO19115 also allows a geographic identifier</t>
+  </si>
+  <si>
+    <t>For inspire, the geometry should be a bounding box specified using WGS84</t>
+  </si>
+  <si>
+    <t>For inspire datasets, at lease one of the fields dct:issued, dct:created or dct:modified must be present</t>
+  </si>
+  <si>
+    <t>For inspire datasets this field is mandatory</t>
+  </si>
+  <si>
+    <t>This field should refer to the Inspire standard in the case that the inspire degree of conformity is "conformant"</t>
+  </si>
+  <si>
+    <t>This field is required for Inspire datasets</t>
+  </si>
+  <si>
+    <t>This field is mandatory for inspire datasets</t>
+  </si>
+  <si>
+    <t>For inspire datasets, this field is mandatory. In GeoDCAT this property is incorrectly assigned to Distribution.</t>
+  </si>
+  <si>
+    <t>Role = "point of contact", Inspire requires at least one element of prov:qualifiedAttribution, dcat:contactPoint, dct:rightsHolder, dct:creator or dct:publisher</t>
+  </si>
+  <si>
+    <t>Role = "publisher", Inspire requires at least one element of prov:qualifiedAttribution, dcat:contactPoint, dct:rightsHolder, dct:creator or dct:publisher</t>
+  </si>
+  <si>
+    <t>In case of an unmappable role, Inspire requires at least one element of prov:qualifiedAttribution, dcat:contactPoint, dct:rightsHolder, dct:creator or dct:publisher</t>
+  </si>
+  <si>
+    <t>eigenaar</t>
+  </si>
+  <si>
+    <t>rightsHolder</t>
+  </si>
+  <si>
+    <t>Role = "owner", Inspire requires at least one element of prov:qualifiedAttribution, dcat:contactPoint, dct:rightsHolder, dct:creator or dct:publisher</t>
+  </si>
+  <si>
+    <t>auteur</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>Role = "creator", Inspire requires at least one element of prov:qualifiedAttribution, dcat:contactPoint, dct:rightsHolder, dct:creator or dct:publisher</t>
+  </si>
+  <si>
+    <t>This could also be representated with the URI for this catalogue record</t>
+  </si>
+  <si>
+    <t>MetadataPointOfContact</t>
+  </si>
+  <si>
+    <t>Not in Inspire, only in ISO19115, which states that the field is mandatory if the character set is not ISO 10646-1 (Universal Coded Character Set)</t>
+  </si>
+  <si>
+    <t>InspireStandard</t>
+  </si>
+  <si>
+    <t>coordinate reference system</t>
+  </si>
+  <si>
+    <t>coordinatenstelsel</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>SpatialDatasetCoordinateReferenceSystem</t>
+  </si>
+  <si>
+    <t>The INSPIRE standard</t>
+  </si>
+  <si>
+    <t>inspire</t>
+  </si>
+  <si>
+    <t>COMMISSION REGULATION (EU) No 1089/2010 of 23 November 2010 implementing Directive 2007/2/EC of the European Parliament and of the Council as regards interoperability of spatial data sets and services</t>
+  </si>
+  <si>
+    <t>Coordinate Reference System</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/glossary/SpatialReferenceSystem</t>
+  </si>
+  <si>
+    <t>4258</t>
+  </si>
+  <si>
+    <t>http://www.opengis.net/def/crs/EPSG/0/{waarde}</t>
+  </si>
+  <si>
+    <t>ETRS89</t>
+  </si>
+  <si>
+    <t>WGS 84</t>
+  </si>
+  <si>
+    <t>4326</t>
+  </si>
+  <si>
+    <t>28992</t>
+  </si>
+  <si>
+    <t>Amersfoort / RD New</t>
+  </si>
+  <si>
+    <t>dct:Standard</t>
+  </si>
+  <si>
+    <t>This field is mandatory if the encoding is not UTF-8</t>
+  </si>
+  <si>
+    <t>temporal reference system</t>
+  </si>
+  <si>
+    <t>tijdstelsel</t>
+  </si>
+  <si>
+    <t>TRS</t>
+  </si>
+  <si>
+    <t>Temporal Reference System</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/glossary/TemporalReferenceSystem</t>
+  </si>
+  <si>
+    <t>In case of reference to a CRS or TRS, the value should be the reference list (A bit strange, because you would expect skos:inScheme instead of dct:type)</t>
+  </si>
+  <si>
+    <t>SpatialDatasetTemporalReferenceSystem</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>No official TRS is available</t>
+  </si>
+  <si>
+    <t>Mandatory for Inspire datasets. Inspire values mapped to DCAT-AP-EU codelist</t>
+  </si>
+  <si>
+    <t>Mandatory for Inspire datasets. Inspire values mapped to IANA and Inspire codelist</t>
+  </si>
+  <si>
+    <t>Mapping from Inspire to DCAT-AP original frequency table</t>
+  </si>
+  <si>
+    <t>This field is required when the temporal reference system is not Gregorian (the common default)</t>
   </si>
 </sst>
 </file>
@@ -3100,7 +3241,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3136,6 +3277,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Procent" xfId="3" builtinId="5"/>
@@ -3443,10 +3585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,7 +3622,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3600,10 +3742,10 @@
         <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G10" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3617,10 +3759,10 @@
         <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3634,7 +3776,7 @@
         <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G12" t="s">
         <v>304</v>
@@ -3651,7 +3793,7 @@
         <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G13" t="s">
         <v>306</v>
@@ -3668,7 +3810,7 @@
         <v>263</v>
       </c>
       <c r="D14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G14" t="s">
         <v>104</v>
@@ -3685,7 +3827,7 @@
         <v>263</v>
       </c>
       <c r="D15" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G15" t="s">
         <v>310</v>
@@ -3702,7 +3844,7 @@
         <v>263</v>
       </c>
       <c r="D16" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G16" t="s">
         <v>312</v>
@@ -3719,10 +3861,10 @@
         <v>263</v>
       </c>
       <c r="D17" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G17" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3736,10 +3878,10 @@
         <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G18" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3753,10 +3895,10 @@
         <v>263</v>
       </c>
       <c r="D19" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G19" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3770,7 +3912,7 @@
         <v>263</v>
       </c>
       <c r="D20" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G20" t="s">
         <v>324</v>
@@ -3787,7 +3929,7 @@
         <v>263</v>
       </c>
       <c r="D21" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G21" t="s">
         <v>325</v>
@@ -3804,7 +3946,7 @@
         <v>263</v>
       </c>
       <c r="D22" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G22" t="s">
         <v>299</v>
@@ -3821,7 +3963,7 @@
         <v>263</v>
       </c>
       <c r="D23" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G23" t="s">
         <v>502</v>
@@ -3838,10 +3980,10 @@
         <v>263</v>
       </c>
       <c r="D24" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G24" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3855,10 +3997,10 @@
         <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="G25" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3866,13 +4008,16 @@
         <v>262</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
       </c>
       <c r="D26" t="s">
-        <v>707</v>
+        <v>1027</v>
       </c>
       <c r="G26" t="s">
-        <v>299</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3883,10 +4028,10 @@
         <v>260</v>
       </c>
       <c r="D27" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="G27" t="s">
-        <v>710</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3897,38 +4042,38 @@
         <v>260</v>
       </c>
       <c r="D28" t="s">
-        <v>762</v>
+        <v>705</v>
       </c>
       <c r="G28" t="s">
-        <v>760</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
+        <v>751</v>
+      </c>
+      <c r="G29" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
+        <v>1025</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,10 +4084,10 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3953,10 +4098,10 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3967,10 +4112,10 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,61 +4125,61 @@
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>294</v>
+      <c r="D34" t="s">
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>273</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>274</v>
-      </c>
-      <c r="D36" t="s">
-        <v>295</v>
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4045,10 +4190,10 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4059,10 +4204,10 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,10 +4218,10 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4086,11 +4231,11 @@
       <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>95</v>
+      <c r="D42" t="s">
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4101,10 +4246,10 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4114,11 +4259,11 @@
       <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="D44" t="s">
-        <v>139</v>
+      <c r="D44" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4128,11 +4273,11 @@
       <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>278</v>
+      <c r="D45" t="s">
+        <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>279</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4143,10 +4288,10 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>303</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4156,11 +4301,11 @@
       <c r="B47" t="s">
         <v>16</v>
       </c>
-      <c r="D47" t="s">
-        <v>870</v>
+      <c r="D47" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="E47" t="s">
-        <v>822</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4168,10 +4313,13 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>303</v>
+      </c>
+      <c r="E48" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4179,10 +4327,13 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>298</v>
+        <v>856</v>
+      </c>
+      <c r="E49" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,38 +4341,32 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>503</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>504</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>503</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" t="s">
-        <v>62</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4232,10 +4377,10 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4245,11 +4390,11 @@
       <c r="B54" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>217</v>
+      <c r="D54" t="s">
+        <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4260,10 +4405,10 @@
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4273,11 +4418,11 @@
       <c r="B56" t="s">
         <v>30</v>
       </c>
-      <c r="D56" t="s">
-        <v>220</v>
+      <c r="D56" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4288,10 +4433,10 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4302,10 +4447,10 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="E58" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4316,10 +4461,10 @@
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4330,10 +4475,10 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>871</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
-        <v>861</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4344,10 +4489,10 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>872</v>
+        <v>255</v>
       </c>
       <c r="E61" t="s">
-        <v>822</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4358,10 +4503,10 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>985</v>
+        <v>857</v>
       </c>
       <c r="E62" t="s">
-        <v>981</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4369,10 +4514,13 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>858</v>
+      </c>
+      <c r="E63" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4380,10 +4528,13 @@
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>970</v>
+      </c>
+      <c r="E64" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4391,13 +4542,10 @@
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4405,13 +4553,10 @@
         <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4422,10 +4567,10 @@
         <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4436,10 +4581,10 @@
         <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4450,10 +4595,10 @@
         <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="F69" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4463,11 +4608,11 @@
       <c r="B70" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>253</v>
+      <c r="D70" t="s">
+        <v>216</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4478,10 +4623,10 @@
         <v>45</v>
       </c>
       <c r="D71" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F71" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4491,11 +4636,11 @@
       <c r="B72" t="s">
         <v>45</v>
       </c>
-      <c r="D72" t="s">
-        <v>272</v>
+      <c r="D72" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="F72" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4506,10 +4651,10 @@
         <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="F73" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4520,10 +4665,10 @@
         <v>45</v>
       </c>
       <c r="D74" t="s">
-        <v>873</v>
+        <v>272</v>
       </c>
       <c r="F74" t="s">
-        <v>822</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4531,10 +4676,13 @@
         <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>267</v>
+        <v>301</v>
+      </c>
+      <c r="F75" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4542,10 +4690,13 @@
         <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>298</v>
+        <v>859</v>
+      </c>
+      <c r="F76" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4553,20 +4704,42 @@
         <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>503</v>
+        <v>260</v>
       </c>
       <c r="D77" t="s">
-        <v>504</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
+        <v>286</v>
+      </c>
+      <c r="D78" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" t="s">
+        <v>503</v>
+      </c>
+      <c r="D79" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>133</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>269</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4580,8 +4753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5012,13 +5185,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E27" t="s">
         <v>140</v>
@@ -5321,7 +5494,7 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5329,25 +5502,25 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C3" t="s">
         <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F3" t="s">
         <v>287</v>
       </c>
       <c r="G3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5410,7 +5583,7 @@
         <v>287</v>
       </c>
       <c r="G6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5433,10 +5606,10 @@
         <v>287</v>
       </c>
       <c r="G7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5844,7 +6017,7 @@
         <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -5864,16 +6037,16 @@
         <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="C29" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="D29" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="E29" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="F29" t="s">
         <v>290</v>
@@ -5884,16 +6057,16 @@
         <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="C30" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="D30" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="E30" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="F30" t="s">
         <v>290</v>
@@ -5904,16 +6077,16 @@
         <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="C31" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="D31" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="E31" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="F31" t="s">
         <v>290</v>
@@ -5924,16 +6097,16 @@
         <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="C32" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="D32" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="E32" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="F32" t="s">
         <v>290</v>
@@ -5944,16 +6117,16 @@
         <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="C33" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="D33" t="s">
         <v>336</v>
       </c>
       <c r="E33" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="F33" t="s">
         <v>290</v>
@@ -5966,10 +6139,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6029,7 +6202,7 @@
         <v>503</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6064,13 +6237,13 @@
         <v>72</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M2" t="s">
         <v>505</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6078,7 +6251,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -6117,7 +6290,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
@@ -6186,12 +6359,14 @@
         <v>312</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M5" t="s">
         <v>509</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -6225,12 +6400,14 @@
         <v>74</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M6" t="s">
         <v>510</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -6269,7 +6446,9 @@
       <c r="M7" t="s">
         <v>511</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -6303,11 +6482,9 @@
         <v>289</v>
       </c>
       <c r="M8" t="s">
-        <v>513</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>514</v>
-      </c>
+        <v>986</v>
+      </c>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -6344,10 +6521,10 @@
         <v>289</v>
       </c>
       <c r="M9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6355,7 +6532,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>158</v>
@@ -6364,10 +6541,10 @@
         <v>159</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>3</v>
@@ -6382,13 +6559,13 @@
         <v>72</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6426,7 +6603,7 @@
         <v>511</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>746</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6437,19 +6614,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>336</v>
@@ -6464,7 +6641,7 @@
         <v>511</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>877</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6502,10 +6679,10 @@
         <v>289</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>815</v>
+        <v>992</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6513,7 +6690,7 @@
         <v>110</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>162</v>
@@ -6525,7 +6702,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>2</v>
@@ -6540,13 +6717,13 @@
         <v>304</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>815</v>
+        <v>993</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6578,13 +6755,13 @@
         <v>72</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M15" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>622</v>
+        <v>988</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6592,7 +6769,7 @@
         <v>112</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>168</v>
@@ -6625,7 +6802,7 @@
         <v>513</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6633,10 +6810,10 @@
         <v>112</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>169</v>
@@ -6658,13 +6835,13 @@
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>818</v>
+        <v>996</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6672,7 +6849,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>171</v>
@@ -6696,10 +6873,10 @@
         <v>72</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -6737,10 +6914,10 @@
         <v>290</v>
       </c>
       <c r="M19" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>745</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -6771,277 +6948,297 @@
       <c r="J20" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="K20" s="4" t="s">
+        <v>1016</v>
+      </c>
       <c r="L20" s="4" t="s">
         <v>290</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>744</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>180</v>
+        <v>1017</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>181</v>
+        <v>1018</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="K21" s="4" t="s">
+        <v>1019</v>
+      </c>
       <c r="L21" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="M21" t="s">
-        <v>738</v>
+      <c r="M21" s="11" t="s">
+        <v>1020</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>623</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>183</v>
+        <v>1035</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>184</v>
+        <v>1036</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="M22" t="s">
-        <v>651</v>
+      <c r="M22" s="11" t="s">
+        <v>1041</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" t="s">
-        <v>193</v>
+      <c r="C23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="M23" t="s">
+        <v>734</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" t="s">
-        <v>194</v>
+      <c r="C24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>209</v>
+      <c r="F24" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="K24" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="L24" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M24" t="s">
-        <v>656</v>
+        <v>648</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>127</v>
-      </c>
-      <c r="B25" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>290</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>672</v>
+        <v>649</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>757</v>
+      <c r="C26" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>758</v>
+        <v>194</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>759</v>
+      <c r="F26" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>97</v>
+        <v>3</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="N26" s="4"/>
+      <c r="M26" t="s">
+        <v>652</v>
+      </c>
+      <c r="N26" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>199</v>
-      </c>
-      <c r="B27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>820</v>
+      <c r="C27" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>821</v>
+        <v>121</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>823</v>
+        <v>24</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>824</v>
+        <v>2</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="K27" t="s">
+        <v>299</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="N27" s="4"/>
+        <v>668</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -7051,38 +7248,38 @@
         <v>17</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>858</v>
+        <v>746</v>
       </c>
       <c r="D28" t="s">
-        <v>859</v>
+        <v>747</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>323</v>
+        <v>748</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="K28" t="s">
+        <v>749</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>860</v>
+        <v>749</v>
       </c>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>199</v>
       </c>
@@ -7090,662 +7287,678 @@
         <v>17</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>865</v>
+        <v>807</v>
       </c>
       <c r="D29" t="s">
-        <v>866</v>
+        <v>808</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>3</v>
+        <v>809</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>867</v>
+        <v>810</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>3</v>
+        <v>809</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
-        <v>41</v>
+        <v>811</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="M29" s="21" t="s">
-        <v>868</v>
+      <c r="M29" s="11" t="s">
+        <v>647</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>869</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>657</v>
+        <v>17</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>121</v>
+        <v>844</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>845</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>121</v>
+        <v>323</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>97</v>
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>198</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="K30" t="s">
-        <v>710</v>
-      </c>
       <c r="L30" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="M30" t="s">
-        <v>729</v>
-      </c>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="N30" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>334</v>
+        <v>199</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>199</v>
+        <v>17</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>851</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>852</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s">
-        <v>205</v>
+        <v>3</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>853</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" t="s">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="M31" t="s">
-        <v>738</v>
+        <v>289</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>854</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>743</v>
+        <v>855</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>336</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" t="s">
-        <v>211</v>
+        <v>199</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1007</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" t="s">
-        <v>200</v>
+      <c r="F32" s="4" t="s">
+        <v>1008</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="K32" t="s">
-        <v>310</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>289</v>
       </c>
       <c r="M32" t="s">
-        <v>731</v>
+        <v>511</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>752</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>337</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" t="s">
-        <v>212</v>
+        <v>199</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1010</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F33" t="s">
-        <v>206</v>
+      <c r="F33" s="4" t="s">
+        <v>1011</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>74</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>289</v>
       </c>
       <c r="M33" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" t="s">
-        <v>202</v>
+        <v>653</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>207</v>
+        <v>24</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" t="s">
-        <v>197</v>
-      </c>
-      <c r="J34" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" t="s">
+        <v>706</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s">
-        <v>738</v>
-      </c>
-      <c r="N34" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s">
-        <v>731</v>
-      </c>
-      <c r="N35" t="s">
-        <v>753</v>
+        <v>734</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>986</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>980</v>
+        <v>211</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>981</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>982</v>
+        <v>200</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="J36" t="s">
         <v>74</v>
       </c>
+      <c r="K36" t="s">
+        <v>310</v>
+      </c>
       <c r="L36" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="M36" s="11" t="s">
-        <v>987</v>
+      <c r="M36" t="s">
+        <v>727</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>988</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>989</v>
+        <v>212</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>990</v>
+        <v>206</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="J37" t="s">
+        <v>74</v>
+      </c>
       <c r="L37" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>991</v>
+        <v>289</v>
+      </c>
+      <c r="M37" t="s">
+        <v>728</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>350</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
+        <v>341</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="J38" t="s">
-        <v>73</v>
-      </c>
-      <c r="L38" t="s">
-        <v>287</v>
+        <v>72</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="M38" t="s">
-        <v>513</v>
+        <v>734</v>
       </c>
       <c r="N38" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>351</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
+        <v>344</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="J39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L39" t="s">
-        <v>287</v>
+        <v>74</v>
+      </c>
+      <c r="K39" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="M39" t="s">
-        <v>733</v>
+        <v>727</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>352</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
+        <v>399</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>971</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>965</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>24</v>
+        <v>966</v>
       </c>
       <c r="F40" t="s">
-        <v>179</v>
+        <v>967</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>130</v>
+        <v>46</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J40" t="s">
         <v>74</v>
       </c>
-      <c r="L40" t="s">
-        <v>289</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="N40" t="s">
-        <v>756</v>
+      <c r="L40" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>356</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
+        <v>399</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>973</v>
       </c>
       <c r="D41" t="s">
-        <v>214</v>
+        <v>974</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>975</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" t="s">
-        <v>72</v>
-      </c>
-      <c r="K41" t="s">
-        <v>312</v>
-      </c>
-      <c r="L41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="L41" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="M41" t="s">
-        <v>734</v>
+      <c r="M41" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>978</v>
+        <v>224</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
         <v>73</v>
       </c>
       <c r="L42" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s">
-        <v>735</v>
+        <v>513</v>
+      </c>
+      <c r="N42" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>289</v>
+      <c r="C43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>198</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+      <c r="L43" t="s">
+        <v>287</v>
       </c>
       <c r="M43" t="s">
-        <v>511</v>
+        <v>729</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>875</v>
+      <c r="C44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>876</v>
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>179</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="M44" t="s">
-        <v>511</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>877</v>
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>130</v>
+      </c>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" t="s">
+        <v>290</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="N44" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>980</v>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>982</v>
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
         <v>72</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>290</v>
+      <c r="K45" t="s">
+        <v>312</v>
+      </c>
+      <c r="L45" t="s">
+        <v>287</v>
       </c>
       <c r="M45" t="s">
-        <v>983</v>
-      </c>
-      <c r="N45" s="4"/>
+        <v>730</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>963</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>3</v>
@@ -7753,151 +7966,160 @@
       <c r="H46" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="J46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L46" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M46" t="s">
-        <v>511</v>
+        <v>731</v>
+      </c>
+      <c r="N46" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F47" t="s">
-        <v>224</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" t="s">
-        <v>71</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="F47" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>287</v>
       </c>
       <c r="M47" t="s">
-        <v>513</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>965</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s">
-        <v>31</v>
+        <v>966</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>967</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J48" t="s">
-        <v>71</v>
-      </c>
-      <c r="L48" t="s">
-        <v>287</v>
+      <c r="J48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="M48" t="s">
+        <v>968</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>46</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J49" t="s">
-        <v>73</v>
-      </c>
-      <c r="K49" t="s">
-        <v>314</v>
+        <v>71</v>
       </c>
       <c r="L49" t="s">
         <v>287</v>
       </c>
+      <c r="M49" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s">
         <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
-      </c>
-      <c r="E50" t="s">
-        <v>24</v>
+        <v>224</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J50" t="s">
         <v>71</v>
@@ -7905,133 +8127,139 @@
       <c r="L50" t="s">
         <v>287</v>
       </c>
+      <c r="M50" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s">
         <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
-      </c>
-      <c r="E51" t="s">
-        <v>82</v>
+        <v>58</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>124</v>
+        <v>46</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L51" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K52" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s">
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E53" t="s">
         <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>102</v>
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
       </c>
       <c r="J53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s">
         <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F54" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="J54" t="s">
         <v>74</v>
@@ -8042,72 +8270,63 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s">
         <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s">
         <v>72</v>
       </c>
       <c r="K55" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L55" t="s">
         <v>289</v>
       </c>
-      <c r="M55" t="s">
-        <v>737</v>
-      </c>
-      <c r="N55" t="s">
-        <v>816</v>
-      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s">
         <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
         <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="J56" t="s">
         <v>74</v>
@@ -8118,127 +8337,142 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B57" t="s">
         <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s">
         <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>198</v>
       </c>
       <c r="J57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B58" t="s">
         <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J58" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="K58" t="s">
+        <v>306</v>
       </c>
       <c r="L58" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="M58" t="s">
+        <v>733</v>
+      </c>
+      <c r="N58" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>198</v>
       </c>
       <c r="J59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s">
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s">
         <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L60" t="s">
         <v>290</v>
@@ -8246,34 +8480,31 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="E61" t="s">
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s">
-        <v>72</v>
-      </c>
-      <c r="K61" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="L61" t="s">
         <v>290</v>
@@ -8281,127 +8512,121 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E62" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L62" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E63" t="s">
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
-      </c>
-      <c r="I63" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="J63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L63" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="J64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L64" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D65" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>3</v>
@@ -8410,33 +8635,33 @@
         <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L65" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>250</v>
+        <v>53</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>3</v>
@@ -8445,74 +8670,68 @@
         <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J66" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L66" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>901</v>
+        <v>378</v>
       </c>
       <c r="B67" t="s">
-        <v>625</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>627</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>628</v>
+        <v>242</v>
       </c>
       <c r="E67" t="s">
-        <v>626</v>
+        <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>627</v>
+        <v>121</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
-      </c>
-      <c r="I67" t="s">
-        <v>629</v>
+        <v>97</v>
       </c>
       <c r="J67" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="K67" t="s">
+        <v>325</v>
       </c>
       <c r="L67" t="s">
-        <v>287</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="N67" t="s">
-        <v>854</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>902</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s">
-        <v>292</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>654</v>
+        <v>244</v>
       </c>
       <c r="D68" t="s">
-        <v>655</v>
+        <v>245</v>
       </c>
       <c r="E68" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="F68" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>3</v>
@@ -8520,37 +8739,34 @@
       <c r="H68" t="s">
         <v>46</v>
       </c>
+      <c r="I68" t="s">
+        <v>55</v>
+      </c>
       <c r="J68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L68" t="s">
-        <v>287</v>
-      </c>
-      <c r="M68" t="s">
-        <v>653</v>
-      </c>
-      <c r="N68" t="s">
-        <v>819</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>747</v>
+        <v>248</v>
       </c>
       <c r="D69" t="s">
-        <v>748</v>
+        <v>249</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="F69" t="s">
-        <v>749</v>
+        <v>250</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>3</v>
@@ -8559,36 +8775,33 @@
         <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L69" t="s">
-        <v>287</v>
-      </c>
-      <c r="M69" t="s">
-        <v>511</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>384</v>
+        <v>901</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>622</v>
       </c>
       <c r="C70" t="s">
-        <v>750</v>
+        <v>624</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>625</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>623</v>
       </c>
       <c r="F70" t="s">
-        <v>751</v>
+        <v>624</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>3</v>
@@ -8597,36 +8810,39 @@
         <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>626</v>
       </c>
       <c r="J70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L70" t="s">
         <v>289</v>
       </c>
-      <c r="M70" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="M70" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="N70" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>650</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>651</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>3</v>
@@ -8634,37 +8850,37 @@
       <c r="H71" t="s">
         <v>46</v>
       </c>
-      <c r="I71" t="s">
-        <v>41</v>
-      </c>
       <c r="J71" t="s">
         <v>73</v>
       </c>
       <c r="L71" t="s">
         <v>287</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>649</v>
+      </c>
+      <c r="N71" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>904</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>190</v>
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>738</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>739</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>192</v>
+        <v>740</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>3</v>
@@ -8681,28 +8897,28 @@
       <c r="L72" t="s">
         <v>287</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>905</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>855</v>
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
+        <v>741</v>
       </c>
       <c r="D73" t="s">
-        <v>856</v>
+        <v>228</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>209</v>
+        <v>742</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>3</v>
@@ -8711,42 +8927,45 @@
         <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="J73" t="s">
         <v>74</v>
       </c>
       <c r="L73" t="s">
-        <v>289</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="M73" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B74" t="s">
-        <v>828</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>838</v>
+        <v>53</v>
       </c>
       <c r="D74" t="s">
-        <v>839</v>
+        <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>822</v>
+        <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>826</v>
+        <v>53</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>822</v>
+        <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>834</v>
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>41</v>
       </c>
       <c r="J74" t="s">
         <v>73</v>
@@ -8754,66 +8973,66 @@
       <c r="L74" t="s">
         <v>287</v>
       </c>
-      <c r="M74" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M74" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B75" t="s">
-        <v>829</v>
-      </c>
-      <c r="C75" t="s">
-        <v>836</v>
+        <v>130</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D75" t="s">
-        <v>837</v>
+        <v>195</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="F75" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>41</v>
       </c>
       <c r="J75" t="s">
         <v>73</v>
       </c>
-      <c r="K75" t="s">
-        <v>835</v>
-      </c>
       <c r="L75" t="s">
         <v>287</v>
       </c>
-      <c r="M75" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M75" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B76" t="s">
-        <v>829</v>
-      </c>
-      <c r="C76" t="s">
-        <v>31</v>
+        <v>130</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>841</v>
       </c>
       <c r="D76" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E76" t="s">
         <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>3</v>
@@ -8822,77 +9041,80 @@
         <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="J76" t="s">
         <v>74</v>
       </c>
       <c r="L76" t="s">
+        <v>289</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>905</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>100</v>
+      </c>
+      <c r="J77" t="s">
+        <v>74</v>
+      </c>
+      <c r="L77" t="s">
         <v>290</v>
       </c>
-      <c r="M76" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>908</v>
-      </c>
-      <c r="B77" t="s">
-        <v>828</v>
-      </c>
-      <c r="C77" t="s">
-        <v>845</v>
-      </c>
-      <c r="D77" t="s">
-        <v>843</v>
-      </c>
-      <c r="E77" t="s">
-        <v>822</v>
-      </c>
-      <c r="F77" t="s">
-        <v>830</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="H77" t="s">
-        <v>827</v>
-      </c>
-      <c r="J77" t="s">
-        <v>73</v>
-      </c>
-      <c r="L77" t="s">
-        <v>287</v>
-      </c>
-      <c r="M77" t="s">
-        <v>825</v>
+      <c r="M77" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B78" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="C78" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="D78" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="E78" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="F78" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="H78" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="J78" t="s">
         <v>73</v>
@@ -8901,106 +9123,109 @@
         <v>287</v>
       </c>
       <c r="M78" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B79" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="C79" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="D79" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="E79" t="s">
-        <v>822</v>
+        <v>24</v>
       </c>
       <c r="F79" t="s">
-        <v>833</v>
+        <v>121</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="J79" t="s">
         <v>73</v>
       </c>
+      <c r="K79" t="s">
+        <v>822</v>
+      </c>
       <c r="L79" t="s">
         <v>287</v>
       </c>
       <c r="M79" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B80" t="s">
-        <v>878</v>
+        <v>816</v>
       </c>
       <c r="C80" t="s">
-        <v>879</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>880</v>
+        <v>827</v>
       </c>
       <c r="E80" t="s">
         <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>41</v>
       </c>
       <c r="J80" t="s">
-        <v>73</v>
-      </c>
-      <c r="K80" t="s">
-        <v>881</v>
+        <v>74</v>
       </c>
       <c r="L80" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M80" t="s">
-        <v>511</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B81" t="s">
-        <v>878</v>
+        <v>815</v>
       </c>
       <c r="C81" t="s">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="D81" t="s">
-        <v>883</v>
+        <v>830</v>
       </c>
       <c r="E81" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="F81" t="s">
-        <v>884</v>
+        <v>817</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>62</v>
+        <v>809</v>
       </c>
       <c r="H81" t="s">
-        <v>63</v>
+        <v>814</v>
       </c>
       <c r="J81" t="s">
         <v>73</v>
@@ -9009,6 +9234,149 @@
         <v>287</v>
       </c>
       <c r="M81" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>909</v>
+      </c>
+      <c r="B82" t="s">
+        <v>829</v>
+      </c>
+      <c r="C82" t="s">
+        <v>833</v>
+      </c>
+      <c r="D82" t="s">
+        <v>831</v>
+      </c>
+      <c r="E82" t="s">
+        <v>809</v>
+      </c>
+      <c r="F82" t="s">
+        <v>818</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="H82" t="s">
+        <v>819</v>
+      </c>
+      <c r="J82" t="s">
+        <v>73</v>
+      </c>
+      <c r="L82" t="s">
+        <v>287</v>
+      </c>
+      <c r="M82" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>910</v>
+      </c>
+      <c r="B83" t="s">
+        <v>828</v>
+      </c>
+      <c r="C83" t="s">
+        <v>834</v>
+      </c>
+      <c r="D83" t="s">
+        <v>835</v>
+      </c>
+      <c r="E83" t="s">
+        <v>809</v>
+      </c>
+      <c r="F83" t="s">
+        <v>820</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" t="s">
+        <v>130</v>
+      </c>
+      <c r="J83" t="s">
+        <v>73</v>
+      </c>
+      <c r="L83" t="s">
+        <v>287</v>
+      </c>
+      <c r="M83" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>911</v>
+      </c>
+      <c r="B84" t="s">
+        <v>863</v>
+      </c>
+      <c r="C84" t="s">
+        <v>864</v>
+      </c>
+      <c r="D84" t="s">
+        <v>865</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s">
+        <v>121</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>97</v>
+      </c>
+      <c r="J84" t="s">
+        <v>73</v>
+      </c>
+      <c r="K84" t="s">
+        <v>866</v>
+      </c>
+      <c r="L84" t="s">
+        <v>287</v>
+      </c>
+      <c r="M84" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>912</v>
+      </c>
+      <c r="B85" t="s">
+        <v>863</v>
+      </c>
+      <c r="C85" t="s">
+        <v>867</v>
+      </c>
+      <c r="D85" t="s">
+        <v>868</v>
+      </c>
+      <c r="E85" t="s">
+        <v>809</v>
+      </c>
+      <c r="F85" t="s">
+        <v>869</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H85" t="s">
+        <v>63</v>
+      </c>
+      <c r="J85" t="s">
+        <v>73</v>
+      </c>
+      <c r="L85" t="s">
+        <v>287</v>
+      </c>
+      <c r="M85" t="s">
         <v>511</v>
       </c>
     </row>
@@ -9066,7 +9434,7 @@
         <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9125,7 +9493,7 @@
         <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9133,40 +9501,40 @@
         <v>279</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="B13" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="C13" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="B14" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="C14" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="B15" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -9228,10 +9596,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9249,7 +9617,7 @@
         <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>328</v>
@@ -9275,16 +9643,16 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C2" t="s">
         <v>334</v>
       </c>
       <c r="D2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G2" t="s">
         <v>445</v>
@@ -9298,16 +9666,16 @@
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C3" t="s">
         <v>334</v>
       </c>
       <c r="D3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G3" t="s">
         <v>445</v>
@@ -9316,7 +9684,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9324,16 +9692,16 @@
         <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C4" t="s">
         <v>329</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" t="s">
         <v>516</v>
-      </c>
-      <c r="E4" t="s">
-        <v>517</v>
       </c>
       <c r="G4" t="s">
         <v>444</v>
@@ -9347,16 +9715,16 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C5" t="s">
         <v>329</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="E5" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="G5" t="s">
         <v>444</v>
@@ -9376,7 +9744,7 @@
         <v>305</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G6" t="s">
         <v>444</v>
@@ -9450,7 +9818,7 @@
         <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C10" t="s">
         <v>332</v>
@@ -9473,7 +9841,7 @@
         <v>315</v>
       </c>
       <c r="B11" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C11" t="s">
         <v>332</v>
@@ -9496,7 +9864,7 @@
         <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C12" t="s">
         <v>332</v>
@@ -9519,7 +9887,7 @@
         <v>315</v>
       </c>
       <c r="B13" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C13" t="s">
         <v>332</v>
@@ -9556,10 +9924,10 @@
         <v>329</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E15" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G15" t="s">
         <v>444</v>
@@ -9576,10 +9944,10 @@
         <v>329</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G16" t="s">
         <v>444</v>
@@ -9588,18 +9956,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C17" t="s">
         <v>329</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E17" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G17" t="s">
         <v>444</v>
@@ -9608,18 +9976,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C18" t="s">
         <v>329</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E18" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="G18" t="s">
         <v>444</v>
@@ -9628,18 +9996,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C19" t="s">
         <v>329</v>
       </c>
       <c r="D19" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="E19" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="G19" t="s">
         <v>444</v>
@@ -9648,18 +10016,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="C20" t="s">
         <v>329</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="E20" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="G20" t="s">
         <v>444</v>
@@ -9668,24 +10036,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="C21" t="s">
         <v>329</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="E21" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="G21" t="s">
         <v>444</v>
       </c>
       <c r="H21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G22" t="s">
+        <v>444</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -9696,10 +10121,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9716,7 +10141,7 @@
         <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>261</v>
@@ -10654,13 +11079,13 @@
         <v>306</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="D56" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="E56" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -10671,13 +11096,13 @@
         <v>306</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -10804,16 +11229,16 @@
         <v>304</v>
       </c>
       <c r="B65" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C65" t="s">
+        <v>517</v>
+      </c>
+      <c r="D65" t="s">
         <v>518</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>519</v>
-      </c>
-      <c r="E65" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -10821,16 +11246,16 @@
         <v>304</v>
       </c>
       <c r="B66" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C66" t="s">
+        <v>520</v>
+      </c>
+      <c r="D66" t="s">
         <v>521</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>522</v>
-      </c>
-      <c r="E66" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -10838,16 +11263,16 @@
         <v>304</v>
       </c>
       <c r="B67" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C67" t="s">
+        <v>523</v>
+      </c>
+      <c r="D67" t="s">
         <v>524</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>525</v>
-      </c>
-      <c r="E67" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -10855,16 +11280,16 @@
         <v>304</v>
       </c>
       <c r="B68" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C68" t="s">
+        <v>526</v>
+      </c>
+      <c r="D68" t="s">
         <v>527</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>528</v>
-      </c>
-      <c r="E68" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -10872,16 +11297,16 @@
         <v>304</v>
       </c>
       <c r="B69" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C69" t="s">
+        <v>529</v>
+      </c>
+      <c r="D69" t="s">
         <v>530</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>531</v>
-      </c>
-      <c r="E69" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -10889,16 +11314,16 @@
         <v>304</v>
       </c>
       <c r="B70" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C70" t="s">
+        <v>532</v>
+      </c>
+      <c r="D70" t="s">
         <v>533</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>534</v>
-      </c>
-      <c r="E70" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -10906,16 +11331,16 @@
         <v>304</v>
       </c>
       <c r="B71" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D71" t="s">
         <v>536</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>537</v>
-      </c>
-      <c r="E71" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -10923,16 +11348,16 @@
         <v>304</v>
       </c>
       <c r="B72" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C72" t="s">
+        <v>538</v>
+      </c>
+      <c r="D72" t="s">
         <v>539</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>540</v>
-      </c>
-      <c r="E72" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -10940,16 +11365,16 @@
         <v>304</v>
       </c>
       <c r="B73" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C73" t="s">
+        <v>541</v>
+      </c>
+      <c r="D73" t="s">
         <v>542</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>543</v>
-      </c>
-      <c r="E73" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -10957,16 +11382,16 @@
         <v>304</v>
       </c>
       <c r="B74" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C74" t="s">
+        <v>544</v>
+      </c>
+      <c r="D74" t="s">
         <v>545</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>546</v>
-      </c>
-      <c r="E74" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -10974,16 +11399,16 @@
         <v>304</v>
       </c>
       <c r="B75" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C75" t="s">
+        <v>547</v>
+      </c>
+      <c r="D75" t="s">
         <v>548</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>549</v>
-      </c>
-      <c r="E75" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -10991,16 +11416,16 @@
         <v>304</v>
       </c>
       <c r="B76" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C76" t="s">
+        <v>550</v>
+      </c>
+      <c r="D76" t="s">
         <v>551</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>552</v>
-      </c>
-      <c r="E76" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -11008,16 +11433,16 @@
         <v>304</v>
       </c>
       <c r="B77" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C77" t="s">
+        <v>553</v>
+      </c>
+      <c r="D77" t="s">
         <v>554</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>555</v>
-      </c>
-      <c r="E77" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -11025,16 +11450,16 @@
         <v>304</v>
       </c>
       <c r="B78" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C78" t="s">
+        <v>556</v>
+      </c>
+      <c r="D78" t="s">
         <v>557</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>558</v>
-      </c>
-      <c r="E78" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -11042,16 +11467,16 @@
         <v>304</v>
       </c>
       <c r="B79" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C79" t="s">
+        <v>559</v>
+      </c>
+      <c r="D79" t="s">
         <v>560</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>561</v>
-      </c>
-      <c r="E79" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -11059,16 +11484,16 @@
         <v>304</v>
       </c>
       <c r="B80" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C80" t="s">
+        <v>562</v>
+      </c>
+      <c r="D80" t="s">
         <v>563</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>564</v>
-      </c>
-      <c r="E80" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -11076,16 +11501,16 @@
         <v>304</v>
       </c>
       <c r="B81" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C81" t="s">
+        <v>565</v>
+      </c>
+      <c r="D81" t="s">
         <v>566</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>567</v>
-      </c>
-      <c r="E81" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -11093,16 +11518,16 @@
         <v>304</v>
       </c>
       <c r="B82" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C82" t="s">
+        <v>568</v>
+      </c>
+      <c r="D82" t="s">
         <v>569</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>570</v>
-      </c>
-      <c r="E82" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -11110,16 +11535,16 @@
         <v>304</v>
       </c>
       <c r="B83" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C83" t="s">
+        <v>571</v>
+      </c>
+      <c r="D83" t="s">
         <v>572</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>573</v>
-      </c>
-      <c r="E83" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -11127,16 +11552,16 @@
         <v>304</v>
       </c>
       <c r="B84" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C84" t="s">
+        <v>574</v>
+      </c>
+      <c r="D84" t="s">
         <v>575</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>576</v>
-      </c>
-      <c r="E84" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -11144,16 +11569,16 @@
         <v>304</v>
       </c>
       <c r="B85" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C85" t="s">
+        <v>577</v>
+      </c>
+      <c r="D85" t="s">
         <v>578</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>579</v>
-      </c>
-      <c r="E85" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -11161,16 +11586,16 @@
         <v>304</v>
       </c>
       <c r="B86" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C86" t="s">
+        <v>580</v>
+      </c>
+      <c r="D86" t="s">
         <v>581</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>582</v>
-      </c>
-      <c r="E86" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -11178,16 +11603,16 @@
         <v>304</v>
       </c>
       <c r="B87" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C87" t="s">
+        <v>583</v>
+      </c>
+      <c r="D87" t="s">
         <v>584</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>585</v>
-      </c>
-      <c r="E87" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -11195,16 +11620,16 @@
         <v>304</v>
       </c>
       <c r="B88" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C88" t="s">
+        <v>586</v>
+      </c>
+      <c r="D88" t="s">
         <v>587</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>588</v>
-      </c>
-      <c r="E88" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -11212,16 +11637,16 @@
         <v>304</v>
       </c>
       <c r="B89" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C89" t="s">
+        <v>589</v>
+      </c>
+      <c r="D89" t="s">
         <v>590</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>591</v>
-      </c>
-      <c r="E89" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -11229,16 +11654,16 @@
         <v>304</v>
       </c>
       <c r="B90" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C90" t="s">
+        <v>592</v>
+      </c>
+      <c r="D90" t="s">
         <v>593</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>594</v>
-      </c>
-      <c r="E90" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -11246,16 +11671,16 @@
         <v>304</v>
       </c>
       <c r="B91" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C91" t="s">
+        <v>595</v>
+      </c>
+      <c r="D91" t="s">
         <v>596</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>597</v>
-      </c>
-      <c r="E91" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -11263,16 +11688,16 @@
         <v>304</v>
       </c>
       <c r="B92" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C92" t="s">
+        <v>598</v>
+      </c>
+      <c r="D92" t="s">
         <v>599</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>600</v>
-      </c>
-      <c r="E92" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -11280,16 +11705,16 @@
         <v>304</v>
       </c>
       <c r="B93" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C93" t="s">
+        <v>601</v>
+      </c>
+      <c r="D93" t="s">
         <v>602</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>603</v>
-      </c>
-      <c r="E93" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -11297,16 +11722,16 @@
         <v>304</v>
       </c>
       <c r="B94" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C94" t="s">
+        <v>604</v>
+      </c>
+      <c r="D94" t="s">
         <v>605</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>606</v>
-      </c>
-      <c r="E94" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -11314,16 +11739,16 @@
         <v>304</v>
       </c>
       <c r="B95" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C95" t="s">
+        <v>607</v>
+      </c>
+      <c r="D95" t="s">
         <v>608</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>609</v>
-      </c>
-      <c r="E95" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -11331,16 +11756,16 @@
         <v>304</v>
       </c>
       <c r="B96" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C96" t="s">
+        <v>610</v>
+      </c>
+      <c r="D96" t="s">
         <v>611</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>612</v>
-      </c>
-      <c r="E96" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -11348,16 +11773,16 @@
         <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C97" t="s">
+        <v>613</v>
+      </c>
+      <c r="D97" t="s">
         <v>614</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>615</v>
-      </c>
-      <c r="E97" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -11365,16 +11790,16 @@
         <v>304</v>
       </c>
       <c r="B98" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C98" t="s">
+        <v>616</v>
+      </c>
+      <c r="D98" t="s">
         <v>617</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>618</v>
-      </c>
-      <c r="E98" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -11382,13 +11807,13 @@
         <v>304</v>
       </c>
       <c r="B99" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C99" t="s">
+        <v>619</v>
+      </c>
+      <c r="D99" t="s">
         <v>620</v>
-      </c>
-      <c r="D99" t="s">
-        <v>621</v>
       </c>
       <c r="E99" t="s">
         <v>75</v>
@@ -11399,16 +11824,16 @@
         <v>304</v>
       </c>
       <c r="B100" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -11416,16 +11841,16 @@
         <v>304</v>
       </c>
       <c r="B101" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -11433,16 +11858,16 @@
         <v>304</v>
       </c>
       <c r="B102" t="s">
+        <v>907</v>
+      </c>
+      <c r="C102" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="C102" s="20" t="s">
-        <v>937</v>
-      </c>
       <c r="D102" s="20" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -11450,16 +11875,16 @@
         <v>304</v>
       </c>
       <c r="B103" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -11467,16 +11892,16 @@
         <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -11484,16 +11909,16 @@
         <v>304</v>
       </c>
       <c r="B105" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -11501,16 +11926,16 @@
         <v>304</v>
       </c>
       <c r="B106" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -11518,16 +11943,16 @@
         <v>304</v>
       </c>
       <c r="B107" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -11535,16 +11960,16 @@
         <v>304</v>
       </c>
       <c r="B108" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -11552,7 +11977,7 @@
         <v>304</v>
       </c>
       <c r="B109" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>440</v>
@@ -11569,16 +11994,16 @@
         <v>304</v>
       </c>
       <c r="B110" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -11586,16 +12011,16 @@
         <v>304</v>
       </c>
       <c r="B111" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -11603,16 +12028,16 @@
         <v>304</v>
       </c>
       <c r="B112" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -11620,16 +12045,16 @@
         <v>304</v>
       </c>
       <c r="B113" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -11640,10 +12065,10 @@
         <v>502</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -11654,10 +12079,10 @@
         <v>502</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -11668,10 +12093,10 @@
         <v>502</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -11682,10 +12107,10 @@
         <v>502</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -11696,10 +12121,10 @@
         <v>502</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -11710,10 +12135,10 @@
         <v>502</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -11724,10 +12149,10 @@
         <v>502</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -11738,10 +12163,10 @@
         <v>502</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -11752,10 +12177,10 @@
         <v>502</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -11769,10 +12194,10 @@
         <v>224</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -11783,13 +12208,13 @@
         <v>299</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -11800,13 +12225,13 @@
         <v>299</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -11814,13 +12239,13 @@
         <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -11828,13 +12253,13 @@
         <v>111</v>
       </c>
       <c r="B127" t="s">
+        <v>681</v>
+      </c>
+      <c r="C127" t="s">
         <v>685</v>
       </c>
-      <c r="C127" t="s">
-        <v>689</v>
-      </c>
       <c r="D127" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -11842,13 +12267,13 @@
         <v>111</v>
       </c>
       <c r="B128" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C128" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D128" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -11856,296 +12281,296 @@
         <v>111</v>
       </c>
       <c r="B129" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C129" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D129" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B130" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>408</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>706</v>
+      </c>
+      <c r="B131" t="s">
+        <v>706</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="B131" t="s">
-        <v>710</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>714</v>
-      </c>
       <c r="D131" s="19" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B132" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B133" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B134" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B135" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B136" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B137" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B138" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B139" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>749</v>
+      </c>
+      <c r="B140" t="s">
+        <v>749</v>
+      </c>
+      <c r="C140" s="20" t="s">
         <v>760</v>
       </c>
-      <c r="B140" t="s">
-        <v>760</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>771</v>
-      </c>
       <c r="D140" s="20" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B141" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="E141" s="20" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B142" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="E142" s="20" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B143" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B144" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B145" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="E145" s="20" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B146" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>108</v>
@@ -12156,425 +12581,495 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B147" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="D147" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="E147" s="20" t="s">
         <v>546</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B148" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B149" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="E149" s="20" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B150" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B151" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B152" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B153" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B154" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="E154" s="20" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B155" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C155" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="D155" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="E155" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B156" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C156" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="D156" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="E156" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B157" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C157" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="D157" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="E157" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>866</v>
+      </c>
+      <c r="B158" t="s">
+        <v>866</v>
+      </c>
+      <c r="C158" t="s">
+        <v>880</v>
+      </c>
+      <c r="D158" t="s">
         <v>881</v>
       </c>
-      <c r="B158" t="s">
-        <v>881</v>
-      </c>
-      <c r="C158" t="s">
-        <v>895</v>
-      </c>
-      <c r="D158" t="s">
-        <v>896</v>
-      </c>
       <c r="E158" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B159" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C159" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="D159" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="E159" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B160" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C160" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="D160" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="E160" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B161" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C161" t="s">
         <v>160</v>
       </c>
       <c r="D161" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="E161" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B162" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C162" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="D162" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="E162" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B163" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C163" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="D163" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="E163" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B164" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C164" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="D164" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="E164" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B165" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C165" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="D165" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="E165" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="B166" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="B167" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="B168" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="B169" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="D169" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="B170" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="D170" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="B171" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>997</v>
+        <v>982</v>
       </c>
       <c r="D171" t="s">
-        <v>1000</v>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C50" numberStoredAsText="1"/>
+    <ignoredError sqref="C50 C173:C175" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/inspire/GEO-DCAT-AP-Profile.xlsx
+++ b/inspire/GEO-DCAT-AP-Profile.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1050">
   <si>
     <t>uri schema</t>
   </si>
@@ -3174,6 +3174,12 @@
   </si>
   <si>
     <t>This field is required when the temporal reference system is not Gregorian (the common default)</t>
+  </si>
+  <si>
+    <t>ResponsiblePartyRole</t>
+  </si>
+  <si>
+    <t>ResponsibleParty</t>
   </si>
 </sst>
 </file>
@@ -6141,8 +6147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6234,7 +6240,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>287</v>
@@ -6275,7 +6281,7 @@
         <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>287</v>
@@ -6314,7 +6320,7 @@
         <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>287</v>
@@ -6905,7 +6911,7 @@
         <v>115</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
         <v>502</v>
@@ -7146,7 +7152,7 @@
         <v>196</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>290</v>
@@ -7187,7 +7193,7 @@
         <v>198</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>289</v>
@@ -7266,7 +7272,7 @@
         <v>97</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K28" t="s">
         <v>749</v>
@@ -7387,7 +7393,7 @@
         <v>41</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>289</v>
@@ -7580,7 +7586,7 @@
         <v>110</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s">
         <v>310</v>
@@ -7621,7 +7627,7 @@
         <v>102</v>
       </c>
       <c r="J37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>289</v>
@@ -7697,7 +7703,7 @@
         <v>110</v>
       </c>
       <c r="J39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s">
         <v>111</v>
@@ -7929,7 +7935,7 @@
         <v>47</v>
       </c>
       <c r="J45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s">
         <v>312</v>
@@ -7967,7 +7973,7 @@
         <v>46</v>
       </c>
       <c r="J46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L46" t="s">
         <v>290</v>
@@ -8046,7 +8052,7 @@
         <v>41</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>290</v>
@@ -9342,7 +9348,7 @@
         <v>287</v>
       </c>
       <c r="M84" t="s">
-        <v>511</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -9377,7 +9383,7 @@
         <v>287</v>
       </c>
       <c r="M85" t="s">
-        <v>511</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>

--- a/inspire/GEO-DCAT-AP-Profile.xlsx
+++ b/inspire/GEO-DCAT-AP-Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1050">
   <si>
     <t>uri schema</t>
   </si>
@@ -2043,9 +2043,6 @@
     <t>Place-Continent</t>
   </si>
   <si>
-    <t>Place-Contry</t>
-  </si>
-  <si>
     <t>Place-Place</t>
   </si>
   <si>
@@ -2074,12 +2071,6 @@
   </si>
   <si>
     <t>IANA-Application</t>
-  </si>
-  <si>
-    <t>IANA application mediatypes</t>
-  </si>
-  <si>
-    <t>http://www.iana.org/assignments/media-types</t>
   </si>
   <si>
     <t>Total list is larger, Inspire only has three</t>
@@ -3180,6 +3171,15 @@
   </si>
   <si>
     <t>ResponsibleParty</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/theme{waarde}</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/metadata-codelist/ResponsiblePartyRole/{waarde}</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org</t>
   </si>
 </sst>
 </file>
@@ -3591,10 +3591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,7 +3628,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3748,10 +3748,10 @@
         <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3765,10 +3765,10 @@
         <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3782,7 +3782,7 @@
         <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G12" t="s">
         <v>304</v>
@@ -3799,7 +3799,7 @@
         <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>516</v>
+        <v>1047</v>
       </c>
       <c r="G13" t="s">
         <v>306</v>
@@ -3816,7 +3816,7 @@
         <v>263</v>
       </c>
       <c r="D14" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G14" t="s">
         <v>104</v>
@@ -3833,7 +3833,7 @@
         <v>263</v>
       </c>
       <c r="D15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G15" t="s">
         <v>310</v>
@@ -3850,7 +3850,7 @@
         <v>263</v>
       </c>
       <c r="D16" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G16" t="s">
         <v>312</v>
@@ -3867,7 +3867,7 @@
         <v>263</v>
       </c>
       <c r="D17" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G17" t="s">
         <v>670</v>
@@ -3884,10 +3884,10 @@
         <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3901,10 +3901,10 @@
         <v>263</v>
       </c>
       <c r="D19" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3918,7 +3918,7 @@
         <v>263</v>
       </c>
       <c r="D20" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G20" t="s">
         <v>324</v>
@@ -3935,7 +3935,7 @@
         <v>263</v>
       </c>
       <c r="D21" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G21" t="s">
         <v>325</v>
@@ -3952,7 +3952,7 @@
         <v>263</v>
       </c>
       <c r="D22" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G22" t="s">
         <v>299</v>
@@ -3969,7 +3969,7 @@
         <v>263</v>
       </c>
       <c r="D23" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G23" t="s">
         <v>502</v>
@@ -3986,10 +3986,10 @@
         <v>263</v>
       </c>
       <c r="D24" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G24" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4003,10 +4003,10 @@
         <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G25" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4020,10 +4020,10 @@
         <v>263</v>
       </c>
       <c r="D26" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="G26" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4031,13 +4031,16 @@
         <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>703</v>
+        <v>1048</v>
       </c>
       <c r="G27" t="s">
-        <v>299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4048,10 +4051,10 @@
         <v>260</v>
       </c>
       <c r="D28" t="s">
-        <v>705</v>
+        <v>901</v>
       </c>
       <c r="G28" t="s">
-        <v>706</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4062,10 +4065,10 @@
         <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>751</v>
+        <v>700</v>
       </c>
       <c r="G29" t="s">
-        <v>749</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4076,245 +4079,245 @@
         <v>260</v>
       </c>
       <c r="D30" t="s">
-        <v>1025</v>
+        <v>702</v>
       </c>
       <c r="G30" t="s">
-        <v>1019</v>
+        <v>703</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
+        <v>748</v>
+      </c>
+      <c r="G31" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" t="s">
+        <v>677</v>
+      </c>
+      <c r="G33" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" t="s">
+        <v>677</v>
+      </c>
+      <c r="G34" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" t="s">
+        <v>373</v>
+      </c>
+      <c r="G35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G39" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D42" t="s">
         <v>11</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D43" t="s">
         <v>26</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D44" t="s">
         <v>147</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>273</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B46" t="s">
         <v>276</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D46" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>273</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B47" t="s">
         <v>274</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4322,10 +4325,10 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>303</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4336,10 +4339,10 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>856</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>809</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4347,10 +4350,13 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4358,10 +4364,13 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>298</v>
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4369,136 +4378,130 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>503</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>504</v>
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>217</v>
+        <v>16</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="E56" t="s">
-        <v>82</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>220</v>
+        <v>853</v>
       </c>
       <c r="E58" t="s">
-        <v>191</v>
+        <v>806</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
-      </c>
-      <c r="E59" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="D60" t="s">
-        <v>254</v>
-      </c>
-      <c r="E60" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>503</v>
       </c>
       <c r="D61" t="s">
-        <v>255</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4509,10 +4512,10 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>857</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>847</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4523,10 +4526,10 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>858</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>809</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4537,10 +4540,10 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>970</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>966</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4548,10 +4551,13 @@
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4559,10 +4565,13 @@
         <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>218</v>
+      </c>
+      <c r="E66" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4570,13 +4579,13 @@
         <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" t="s">
-        <v>3</v>
+        <v>220</v>
+      </c>
+      <c r="E67" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4584,13 +4593,13 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
-      </c>
-      <c r="F68" t="s">
-        <v>24</v>
+        <v>221</v>
+      </c>
+      <c r="E68" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4598,13 +4607,13 @@
         <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" t="s">
-        <v>62</v>
+        <v>254</v>
+      </c>
+      <c r="E69" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4612,13 +4621,13 @@
         <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>216</v>
-      </c>
-      <c r="F70" t="s">
-        <v>18</v>
+        <v>255</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4626,13 +4635,13 @@
         <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>252</v>
-      </c>
-      <c r="F71" t="s">
-        <v>125</v>
+        <v>854</v>
+      </c>
+      <c r="E71" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4640,13 +4649,13 @@
         <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F72" t="s">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>855</v>
+      </c>
+      <c r="E72" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4654,13 +4663,13 @@
         <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>256</v>
-      </c>
-      <c r="F73" t="s">
-        <v>2</v>
+        <v>967</v>
+      </c>
+      <c r="E73" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4668,13 +4677,10 @@
         <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>272</v>
-      </c>
-      <c r="F74" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4682,13 +4688,10 @@
         <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>301</v>
-      </c>
-      <c r="F75" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4699,10 +4702,10 @@
         <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>859</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s">
-        <v>809</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4710,10 +4713,13 @@
         <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>267</v>
+        <v>52</v>
+      </c>
+      <c r="F77" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4721,10 +4727,13 @@
         <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>298</v>
+        <v>64</v>
+      </c>
+      <c r="F78" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4732,20 +4741,140 @@
         <v>32</v>
       </c>
       <c r="B79" t="s">
-        <v>503</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>504</v>
+        <v>216</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" t="s">
+        <v>252</v>
+      </c>
+      <c r="F80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" t="s">
+        <v>256</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" t="s">
+        <v>272</v>
+      </c>
+      <c r="F83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" t="s">
+        <v>301</v>
+      </c>
+      <c r="F84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" t="s">
+        <v>856</v>
+      </c>
+      <c r="F85" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>260</v>
+      </c>
+      <c r="D86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>286</v>
+      </c>
+      <c r="D87" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>503</v>
+      </c>
+      <c r="D88" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>133</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B89" t="s">
         <v>269</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D89" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5191,13 +5320,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E27" t="s">
         <v>140</v>
@@ -5589,7 +5718,7 @@
         <v>287</v>
       </c>
       <c r="G6" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6043,16 +6172,16 @@
         <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C29" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D29" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E29" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F29" t="s">
         <v>290</v>
@@ -6063,16 +6192,16 @@
         <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C30" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D30" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E30" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F30" t="s">
         <v>290</v>
@@ -6083,16 +6212,16 @@
         <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C31" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D31" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E31" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F31" t="s">
         <v>290</v>
@@ -6103,16 +6232,16 @@
         <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C32" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D32" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E32" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F32" t="s">
         <v>290</v>
@@ -6123,16 +6252,16 @@
         <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C33" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D33" t="s">
         <v>336</v>
       </c>
       <c r="E33" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F33" t="s">
         <v>290</v>
@@ -6147,8 +6276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6208,7 +6337,7 @@
         <v>503</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6249,7 +6378,7 @@
         <v>505</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6371,7 +6500,7 @@
         <v>509</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -6412,7 +6541,7 @@
         <v>510</v>
       </c>
       <c r="N6" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6453,7 +6582,7 @@
         <v>511</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6488,7 +6617,7 @@
         <v>289</v>
       </c>
       <c r="M8" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="N8" s="4"/>
     </row>
@@ -6530,7 +6659,7 @@
         <v>514</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6547,10 +6676,10 @@
         <v>159</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>3</v>
@@ -6571,7 +6700,7 @@
         <v>514</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6609,7 +6738,7 @@
         <v>511</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6620,19 +6749,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>336</v>
@@ -6647,7 +6776,7 @@
         <v>511</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6688,7 +6817,7 @@
         <v>514</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6708,7 +6837,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>2</v>
@@ -6729,7 +6858,7 @@
         <v>514</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6764,10 +6893,10 @@
         <v>289</v>
       </c>
       <c r="M15" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6808,7 +6937,7 @@
         <v>513</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6819,7 +6948,7 @@
         <v>669</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>169</v>
@@ -6847,7 +6976,7 @@
         <v>621</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6923,7 +7052,7 @@
         <v>628</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -6955,7 +7084,7 @@
         <v>72</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>290</v>
@@ -6964,7 +7093,7 @@
         <v>647</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -6975,10 +7104,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>24</v>
@@ -6996,16 +7125,16 @@
         <v>72</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>290</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7016,10 +7145,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
@@ -7041,10 +7170,10 @@
         <v>290</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7079,10 +7208,10 @@
         <v>289</v>
       </c>
       <c r="M23" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7123,7 +7252,7 @@
         <v>648</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7161,7 +7290,7 @@
         <v>649</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7202,7 +7331,7 @@
         <v>652</v>
       </c>
       <c r="N26" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7243,7 +7372,7 @@
         <v>668</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7254,16 +7383,16 @@
         <v>17</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D28" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>2</v>
@@ -7275,13 +7404,13 @@
         <v>71</v>
       </c>
       <c r="K28" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>287</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="N28" s="4"/>
     </row>
@@ -7293,22 +7422,22 @@
         <v>17</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="D29" t="s">
+        <v>805</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>808</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>811</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>72</v>
@@ -7320,7 +7449,7 @@
         <v>647</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7331,10 +7460,10 @@
         <v>17</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D30" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
@@ -7358,10 +7487,10 @@
         <v>289</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="N30" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -7372,16 +7501,16 @@
         <v>17</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D31" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>3</v>
@@ -7399,10 +7528,10 @@
         <v>289</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -7413,16 +7542,16 @@
         <v>17</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>82</v>
@@ -7440,7 +7569,7 @@
         <v>511</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -7451,16 +7580,16 @@
         <v>17</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>82</v>
@@ -7478,7 +7607,7 @@
         <v>511</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7510,16 +7639,16 @@
         <v>73</v>
       </c>
       <c r="K34" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>287</v>
       </c>
       <c r="M34" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7554,10 +7683,10 @@
         <v>289</v>
       </c>
       <c r="M35" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -7595,10 +7724,10 @@
         <v>290</v>
       </c>
       <c r="M36" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -7633,10 +7762,10 @@
         <v>289</v>
       </c>
       <c r="M37" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -7671,10 +7800,10 @@
         <v>289</v>
       </c>
       <c r="M38" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="N38" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -7712,10 +7841,10 @@
         <v>290</v>
       </c>
       <c r="M39" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="N39" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -7726,16 +7855,16 @@
         <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D40" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F40" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>3</v>
@@ -7753,10 +7882,10 @@
         <v>290</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -7767,16 +7896,16 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D41" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>2</v>
@@ -7789,10 +7918,10 @@
         <v>290</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -7830,7 +7959,7 @@
         <v>513</v>
       </c>
       <c r="N42" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -7868,7 +7997,7 @@
         <v>287</v>
       </c>
       <c r="M43" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -7903,10 +8032,10 @@
         <v>290</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="N44" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -7944,7 +8073,7 @@
         <v>287</v>
       </c>
       <c r="M45" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -7958,7 +8087,7 @@
         <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
@@ -7979,10 +8108,10 @@
         <v>290</v>
       </c>
       <c r="M46" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="N46" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -8020,7 +8149,7 @@
         <v>287</v>
       </c>
       <c r="M47" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -8031,16 +8160,16 @@
         <v>78</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>964</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>967</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>3</v>
@@ -8058,10 +8187,10 @@
         <v>290</v>
       </c>
       <c r="M48" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -8411,10 +8540,10 @@
         <v>289</v>
       </c>
       <c r="M58" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="N58" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -8828,7 +8957,7 @@
         <v>621</v>
       </c>
       <c r="N70" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -8866,7 +8995,7 @@
         <v>649</v>
       </c>
       <c r="N71" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -8877,16 +9006,16 @@
         <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D72" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>3</v>
@@ -8915,7 +9044,7 @@
         <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D73" t="s">
         <v>228</v>
@@ -8924,7 +9053,7 @@
         <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>3</v>
@@ -8980,7 +9109,7 @@
         <v>287</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9018,7 +9147,7 @@
         <v>287</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9029,10 +9158,10 @@
         <v>130</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D76" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E76" t="s">
         <v>24</v>
@@ -9056,7 +9185,7 @@
         <v>289</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9091,10 +9220,10 @@
         <v>290</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="N77" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -9102,25 +9231,25 @@
         <v>905</v>
       </c>
       <c r="B78" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C78" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D78" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E78" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F78" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="H78" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="J78" t="s">
         <v>73</v>
@@ -9129,7 +9258,7 @@
         <v>287</v>
       </c>
       <c r="M78" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -9137,13 +9266,13 @@
         <v>906</v>
       </c>
       <c r="B79" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C79" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D79" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E79" t="s">
         <v>24</v>
@@ -9161,13 +9290,13 @@
         <v>73</v>
       </c>
       <c r="K79" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="L79" t="s">
         <v>287</v>
       </c>
       <c r="M79" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -9175,13 +9304,13 @@
         <v>907</v>
       </c>
       <c r="B80" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C80" t="s">
         <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E80" t="s">
         <v>24</v>
@@ -9205,7 +9334,7 @@
         <v>290</v>
       </c>
       <c r="M80" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -9213,25 +9342,25 @@
         <v>908</v>
       </c>
       <c r="B81" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C81" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D81" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E81" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F81" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="H81" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="J81" t="s">
         <v>73</v>
@@ -9240,7 +9369,7 @@
         <v>287</v>
       </c>
       <c r="M81" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -9248,25 +9377,25 @@
         <v>909</v>
       </c>
       <c r="B82" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C82" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D82" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E82" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F82" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="H82" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="J82" t="s">
         <v>73</v>
@@ -9275,7 +9404,7 @@
         <v>287</v>
       </c>
       <c r="M82" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -9283,19 +9412,19 @@
         <v>910</v>
       </c>
       <c r="B83" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C83" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D83" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E83" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F83" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>24</v>
@@ -9310,7 +9439,7 @@
         <v>287</v>
       </c>
       <c r="M83" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -9318,13 +9447,13 @@
         <v>911</v>
       </c>
       <c r="B84" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C84" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D84" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E84" t="s">
         <v>24</v>
@@ -9342,13 +9471,13 @@
         <v>73</v>
       </c>
       <c r="K84" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="L84" t="s">
         <v>287</v>
       </c>
       <c r="M84" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -9356,19 +9485,19 @@
         <v>912</v>
       </c>
       <c r="B85" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C85" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D85" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E85" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F85" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>62</v>
@@ -9383,7 +9512,7 @@
         <v>287</v>
       </c>
       <c r="M85" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -9515,10 +9644,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B13" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C13" t="s">
         <v>658</v>
@@ -9526,21 +9655,21 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B14" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C14" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>963</v>
+      </c>
+      <c r="B15" t="s">
         <v>966</v>
-      </c>
-      <c r="B15" t="s">
-        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -9604,8 +9733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9623,7 +9752,7 @@
         <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>328</v>
@@ -9649,16 +9778,16 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C2" t="s">
         <v>334</v>
       </c>
       <c r="D2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2" t="s">
         <v>677</v>
-      </c>
-      <c r="E2" t="s">
-        <v>678</v>
       </c>
       <c r="G2" t="s">
         <v>445</v>
@@ -9672,16 +9801,16 @@
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C3" t="s">
         <v>334</v>
       </c>
       <c r="D3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="G3" t="s">
         <v>445</v>
@@ -9690,7 +9819,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9698,7 +9827,7 @@
         <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C4" t="s">
         <v>329</v>
@@ -9721,16 +9850,16 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C5" t="s">
         <v>329</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G5" t="s">
         <v>444</v>
@@ -9847,7 +9976,7 @@
         <v>315</v>
       </c>
       <c r="B11" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C11" t="s">
         <v>332</v>
@@ -9870,7 +9999,7 @@
         <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C12" t="s">
         <v>332</v>
@@ -9893,13 +10022,16 @@
         <v>315</v>
       </c>
       <c r="B13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C13" t="s">
         <v>332</v>
       </c>
       <c r="D13" t="s">
         <v>322</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -9930,10 +10062,10 @@
         <v>329</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E15" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G15" t="s">
         <v>444</v>
@@ -9950,10 +10082,10 @@
         <v>329</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E16" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G16" t="s">
         <v>444</v>
@@ -9964,16 +10096,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C17" t="s">
         <v>329</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E17" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G17" t="s">
         <v>444</v>
@@ -9984,16 +10116,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C18" t="s">
         <v>329</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E18" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G18" t="s">
         <v>444</v>
@@ -10004,16 +10136,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C19" t="s">
         <v>329</v>
       </c>
       <c r="D19" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E19" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G19" t="s">
         <v>444</v>
@@ -10024,16 +10156,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C20" t="s">
         <v>329</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E20" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="G20" t="s">
         <v>444</v>
@@ -10044,16 +10176,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C21" t="s">
         <v>329</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E21" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="G21" t="s">
         <v>444</v>
@@ -10064,13 +10196,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C22" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G22" t="s">
         <v>444</v>
@@ -10081,16 +10213,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C23" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E23" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="G23" t="s">
         <v>445</v>
@@ -10098,16 +10230,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C24" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E24" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G24" t="s">
         <v>445</v>
@@ -10116,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -10129,8 +10261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10147,7 +10279,7 @@
         <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>261</v>
@@ -11085,13 +11217,13 @@
         <v>306</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D56" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E56" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -11102,13 +11234,13 @@
         <v>306</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -11116,7 +11248,7 @@
         <v>315</v>
       </c>
       <c r="B58" t="s">
-        <v>315</v>
+        <v>670</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>493</v>
@@ -11133,7 +11265,7 @@
         <v>315</v>
       </c>
       <c r="B59" t="s">
-        <v>315</v>
+        <v>675</v>
       </c>
       <c r="C59" t="s">
         <v>485</v>
@@ -11150,7 +11282,7 @@
         <v>315</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>675</v>
       </c>
       <c r="C60" t="s">
         <v>488</v>
@@ -11167,7 +11299,7 @@
         <v>315</v>
       </c>
       <c r="B61" t="s">
-        <v>315</v>
+        <v>675</v>
       </c>
       <c r="C61" t="s">
         <v>476</v>
@@ -11184,7 +11316,7 @@
         <v>315</v>
       </c>
       <c r="B62" t="s">
-        <v>315</v>
+        <v>671</v>
       </c>
       <c r="C62" t="s">
         <v>494</v>
@@ -11201,7 +11333,7 @@
         <v>315</v>
       </c>
       <c r="B63" t="s">
-        <v>315</v>
+        <v>671</v>
       </c>
       <c r="C63" t="s">
         <v>497</v>
@@ -11218,7 +11350,7 @@
         <v>315</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>671</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
@@ -11235,7 +11367,7 @@
         <v>304</v>
       </c>
       <c r="B65" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C65" t="s">
         <v>517</v>
@@ -11252,7 +11384,7 @@
         <v>304</v>
       </c>
       <c r="B66" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C66" t="s">
         <v>520</v>
@@ -11269,7 +11401,7 @@
         <v>304</v>
       </c>
       <c r="B67" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C67" t="s">
         <v>523</v>
@@ -11286,7 +11418,7 @@
         <v>304</v>
       </c>
       <c r="B68" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C68" t="s">
         <v>526</v>
@@ -11303,7 +11435,7 @@
         <v>304</v>
       </c>
       <c r="B69" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C69" t="s">
         <v>529</v>
@@ -11320,7 +11452,7 @@
         <v>304</v>
       </c>
       <c r="B70" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C70" t="s">
         <v>532</v>
@@ -11337,7 +11469,7 @@
         <v>304</v>
       </c>
       <c r="B71" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C71" t="s">
         <v>535</v>
@@ -11354,7 +11486,7 @@
         <v>304</v>
       </c>
       <c r="B72" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C72" t="s">
         <v>538</v>
@@ -11371,7 +11503,7 @@
         <v>304</v>
       </c>
       <c r="B73" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C73" t="s">
         <v>541</v>
@@ -11388,7 +11520,7 @@
         <v>304</v>
       </c>
       <c r="B74" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C74" t="s">
         <v>544</v>
@@ -11405,7 +11537,7 @@
         <v>304</v>
       </c>
       <c r="B75" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C75" t="s">
         <v>547</v>
@@ -11422,7 +11554,7 @@
         <v>304</v>
       </c>
       <c r="B76" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C76" t="s">
         <v>550</v>
@@ -11439,7 +11571,7 @@
         <v>304</v>
       </c>
       <c r="B77" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C77" t="s">
         <v>553</v>
@@ -11456,7 +11588,7 @@
         <v>304</v>
       </c>
       <c r="B78" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C78" t="s">
         <v>556</v>
@@ -11473,7 +11605,7 @@
         <v>304</v>
       </c>
       <c r="B79" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C79" t="s">
         <v>559</v>
@@ -11490,7 +11622,7 @@
         <v>304</v>
       </c>
       <c r="B80" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C80" t="s">
         <v>562</v>
@@ -11507,7 +11639,7 @@
         <v>304</v>
       </c>
       <c r="B81" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C81" t="s">
         <v>565</v>
@@ -11524,7 +11656,7 @@
         <v>304</v>
       </c>
       <c r="B82" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C82" t="s">
         <v>568</v>
@@ -11541,7 +11673,7 @@
         <v>304</v>
       </c>
       <c r="B83" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C83" t="s">
         <v>571</v>
@@ -11558,7 +11690,7 @@
         <v>304</v>
       </c>
       <c r="B84" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C84" t="s">
         <v>574</v>
@@ -11575,7 +11707,7 @@
         <v>304</v>
       </c>
       <c r="B85" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C85" t="s">
         <v>577</v>
@@ -11592,7 +11724,7 @@
         <v>304</v>
       </c>
       <c r="B86" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C86" t="s">
         <v>580</v>
@@ -11609,7 +11741,7 @@
         <v>304</v>
       </c>
       <c r="B87" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C87" t="s">
         <v>583</v>
@@ -11626,7 +11758,7 @@
         <v>304</v>
       </c>
       <c r="B88" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C88" t="s">
         <v>586</v>
@@ -11643,7 +11775,7 @@
         <v>304</v>
       </c>
       <c r="B89" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C89" t="s">
         <v>589</v>
@@ -11660,7 +11792,7 @@
         <v>304</v>
       </c>
       <c r="B90" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C90" t="s">
         <v>592</v>
@@ -11677,7 +11809,7 @@
         <v>304</v>
       </c>
       <c r="B91" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C91" t="s">
         <v>595</v>
@@ -11694,7 +11826,7 @@
         <v>304</v>
       </c>
       <c r="B92" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C92" t="s">
         <v>598</v>
@@ -11711,7 +11843,7 @@
         <v>304</v>
       </c>
       <c r="B93" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C93" t="s">
         <v>601</v>
@@ -11728,7 +11860,7 @@
         <v>304</v>
       </c>
       <c r="B94" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C94" t="s">
         <v>604</v>
@@ -11745,7 +11877,7 @@
         <v>304</v>
       </c>
       <c r="B95" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C95" t="s">
         <v>607</v>
@@ -11762,7 +11894,7 @@
         <v>304</v>
       </c>
       <c r="B96" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C96" t="s">
         <v>610</v>
@@ -11779,7 +11911,7 @@
         <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C97" t="s">
         <v>613</v>
@@ -11796,7 +11928,7 @@
         <v>304</v>
       </c>
       <c r="B98" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C98" t="s">
         <v>616</v>
@@ -11813,7 +11945,7 @@
         <v>304</v>
       </c>
       <c r="B99" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C99" t="s">
         <v>619</v>
@@ -11830,16 +11962,16 @@
         <v>304</v>
       </c>
       <c r="B100" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -11847,16 +11979,16 @@
         <v>304</v>
       </c>
       <c r="B101" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -11864,16 +11996,16 @@
         <v>304</v>
       </c>
       <c r="B102" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -11881,16 +12013,16 @@
         <v>304</v>
       </c>
       <c r="B103" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -11898,16 +12030,16 @@
         <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -11915,16 +12047,16 @@
         <v>304</v>
       </c>
       <c r="B105" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -11932,16 +12064,16 @@
         <v>304</v>
       </c>
       <c r="B106" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -11949,16 +12081,16 @@
         <v>304</v>
       </c>
       <c r="B107" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -11966,16 +12098,16 @@
         <v>304</v>
       </c>
       <c r="B108" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -11983,7 +12115,7 @@
         <v>304</v>
       </c>
       <c r="B109" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>440</v>
@@ -12000,16 +12132,16 @@
         <v>304</v>
       </c>
       <c r="B110" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -12017,16 +12149,16 @@
         <v>304</v>
       </c>
       <c r="B111" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -12034,16 +12166,16 @@
         <v>304</v>
       </c>
       <c r="B112" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -12051,16 +12183,16 @@
         <v>304</v>
       </c>
       <c r="B113" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -12245,13 +12377,13 @@
         <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -12259,13 +12391,13 @@
         <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C127" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D127" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -12273,13 +12405,13 @@
         <v>111</v>
       </c>
       <c r="B128" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C128" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D128" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -12287,296 +12419,296 @@
         <v>111</v>
       </c>
       <c r="B129" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C129" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D129" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B130" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>408</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B131" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B132" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B133" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B134" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B135" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>746</v>
+      </c>
+      <c r="B136" t="s">
+        <v>746</v>
+      </c>
+      <c r="C136" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="B136" t="s">
-        <v>749</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>752</v>
-      </c>
       <c r="D136" s="20" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B137" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B138" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B139" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B140" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B141" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E141" s="20" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B142" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E142" s="20" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B143" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B144" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B145" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E145" s="20" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B146" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>108</v>
@@ -12587,13 +12719,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B147" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>545</v>
@@ -12604,471 +12736,471 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B148" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B149" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E149" s="20" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B150" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B151" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B152" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B153" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B154" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E154" s="20" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B155" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C155" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D155" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E155" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B156" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C156" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D156" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E156" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B157" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C157" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D157" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E157" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B158" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C158" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D158" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E158" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B159" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C159" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D159" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E159" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B160" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C160" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D160" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E160" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B161" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C161" t="s">
         <v>160</v>
       </c>
       <c r="D161" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E161" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B162" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C162" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D162" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E162" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B163" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C163" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D163" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E163" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B164" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C164" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D164" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E164" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B165" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C165" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D165" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E165" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B166" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B167" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B168" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>974</v>
+      </c>
+      <c r="B169" t="s">
+        <v>974</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="B169" t="s">
-        <v>977</v>
-      </c>
-      <c r="C169" s="4" t="s">
+      <c r="D169" t="s">
         <v>980</v>
-      </c>
-      <c r="D169" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B170" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C170" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="D170" t="s">
         <v>981</v>
-      </c>
-      <c r="D170" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B171" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C171" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="D171" t="s">
         <v>982</v>
-      </c>
-      <c r="D171" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B172" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D172" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B173" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D173" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B174" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D174" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B175" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D175" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B176" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C176" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D176" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>

--- a/inspire/GEO-DCAT-AP-Profile.xlsx
+++ b/inspire/GEO-DCAT-AP-Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1018">
   <si>
     <t>uri schema</t>
   </si>
@@ -822,9 +822,6 @@
   </si>
   <si>
     <t>node</t>
-  </si>
-  <si>
-    <t>http://linkeddata.ordina.nl/waardelijst#{waardelijst}</t>
   </si>
   <si>
     <t>Waardelijsten</t>
@@ -2831,9 +2828,6 @@
     <t>INSPIRE Spatial representation type</t>
   </si>
   <si>
-    <t>&lt;http://inspire.ec.europa.eu/metadata-codelist/SpatialRepresentationTypeCode</t>
-  </si>
-  <si>
     <t>vector</t>
   </si>
   <si>
@@ -2957,15 +2951,6 @@
     <t>SpatialDatasetCoordinateReferenceSystem</t>
   </si>
   <si>
-    <t>The INSPIRE standard</t>
-  </si>
-  <si>
-    <t>inspire</t>
-  </si>
-  <si>
-    <t>COMMISSION REGULATION (EU) No 1089/2010 of 23 November 2010 implementing Directive 2007/2/EC of the European Parliament and of the Council as regards interoperability of spatial data sets and services</t>
-  </si>
-  <si>
     <t>Coordinate Reference System</t>
   </si>
   <si>
@@ -3066,6 +3051,39 @@
   </si>
   <si>
     <t>http://inspire.ec.europa.eu/metadata-codelist/DegreeOfConformity/{waarde}</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/metadata-codelist/SpatialRepresentationTypeCode/{waarde}</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/metadata-codelist/SpatialRepresentationTypeCode</t>
+  </si>
+  <si>
+    <t>ReferenceSystem</t>
+  </si>
+  <si>
+    <t>Reference system</t>
+  </si>
+  <si>
+    <t>http://bp4mc2.org/dcat/reference-system</t>
+  </si>
+  <si>
+    <t>Spatial reference system</t>
+  </si>
+  <si>
+    <t>Temporal reference system</t>
+  </si>
+  <si>
+    <t>Inspire Standard</t>
+  </si>
+  <si>
+    <t>Frequencies</t>
+  </si>
+  <si>
+    <t>http://linkeddata.ordina.nl/profiel#{waardelijst}</t>
+  </si>
+  <si>
+    <t>Inspire Standaard</t>
   </si>
 </sst>
 </file>
@@ -3467,9 +3485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3502,7 +3522,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3518,16 +3538,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" t="s">
         <v>271</v>
-      </c>
-      <c r="B3" t="s">
-        <v>272</v>
       </c>
       <c r="C3" t="s">
         <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3569,7 +3589,7 @@
         <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3588,7 +3608,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
         <v>258</v>
@@ -3597,18 +3617,18 @@
         <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" t="s">
         <v>266</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>267</v>
-      </c>
-      <c r="D9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3622,10 +3642,10 @@
         <v>261</v>
       </c>
       <c r="D10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3639,10 +3659,10 @@
         <v>261</v>
       </c>
       <c r="D11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3656,10 +3676,10 @@
         <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3673,10 +3693,10 @@
         <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3687,13 +3707,13 @@
         <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D14" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3704,13 +3724,13 @@
         <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>1003</v>
       </c>
       <c r="D15" t="s">
-        <v>648</v>
+        <v>1002</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3724,10 +3744,10 @@
         <v>261</v>
       </c>
       <c r="D16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G16" t="s">
-        <v>307</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3741,10 +3761,10 @@
         <v>261</v>
       </c>
       <c r="D17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3758,10 +3778,10 @@
         <v>261</v>
       </c>
       <c r="D18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G18" t="s">
-        <v>629</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3775,10 +3795,10 @@
         <v>261</v>
       </c>
       <c r="D19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G19" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3792,10 +3812,10 @@
         <v>261</v>
       </c>
       <c r="D20" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G20" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3809,10 +3829,10 @@
         <v>261</v>
       </c>
       <c r="D21" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="G21" t="s">
-        <v>321</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3826,10 +3846,10 @@
         <v>261</v>
       </c>
       <c r="D22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3843,10 +3863,10 @@
         <v>261</v>
       </c>
       <c r="D23" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="G23" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3860,10 +3880,10 @@
         <v>261</v>
       </c>
       <c r="D24" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G24" t="s">
-        <v>461</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3877,10 +3897,10 @@
         <v>261</v>
       </c>
       <c r="D25" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="G25" t="s">
-        <v>662</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3894,10 +3914,10 @@
         <v>261</v>
       </c>
       <c r="D26" t="s">
-        <v>861</v>
+        <v>681</v>
       </c>
       <c r="G26" t="s">
-        <v>705</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3911,10 +3931,10 @@
         <v>261</v>
       </c>
       <c r="D27" t="s">
-        <v>981</v>
+        <v>860</v>
       </c>
       <c r="G27" t="s">
-        <v>973</v>
+        <v>704</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3928,10 +3948,10 @@
         <v>261</v>
       </c>
       <c r="D28" t="s">
-        <v>1004</v>
+        <v>976</v>
       </c>
       <c r="G28" t="s">
-        <v>822</v>
+        <v>971</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3945,10 +3965,10 @@
         <v>261</v>
       </c>
       <c r="D29" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="G29" t="s">
-        <v>778</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3956,13 +3976,16 @@
         <v>260</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
       </c>
       <c r="D30" t="s">
-        <v>860</v>
+        <v>1006</v>
       </c>
       <c r="G30" t="s">
-        <v>822</v>
+        <v>777</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3970,13 +3993,16 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="C31" t="s">
+        <v>261</v>
       </c>
       <c r="D31" t="s">
-        <v>659</v>
+        <v>1007</v>
       </c>
       <c r="G31" t="s">
-        <v>297</v>
+        <v>930</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3987,10 +4013,10 @@
         <v>258</v>
       </c>
       <c r="D32" t="s">
-        <v>661</v>
+        <v>859</v>
       </c>
       <c r="G32" t="s">
-        <v>662</v>
+        <v>821</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4001,10 +4027,10 @@
         <v>258</v>
       </c>
       <c r="D33" t="s">
-        <v>707</v>
+        <v>658</v>
       </c>
       <c r="G33" t="s">
-        <v>705</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4015,10 +4041,10 @@
         <v>258</v>
       </c>
       <c r="D34" t="s">
-        <v>979</v>
+        <v>660</v>
       </c>
       <c r="G34" t="s">
-        <v>973</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4029,10 +4055,10 @@
         <v>258</v>
       </c>
       <c r="D35" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="G35" t="s">
-        <v>638</v>
+        <v>704</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4043,10 +4069,10 @@
         <v>258</v>
       </c>
       <c r="D36" t="s">
-        <v>636</v>
+        <v>974</v>
       </c>
       <c r="G36" t="s">
-        <v>639</v>
+        <v>971</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4057,10 +4083,10 @@
         <v>258</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>635</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4071,10 +4097,10 @@
         <v>258</v>
       </c>
       <c r="D38" t="s">
-        <v>316</v>
+        <v>635</v>
       </c>
       <c r="G38" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4085,10 +4111,10 @@
         <v>258</v>
       </c>
       <c r="D39" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
-        <v>634</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4099,10 +4125,10 @@
         <v>258</v>
       </c>
       <c r="D40" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G40" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4113,10 +4139,10 @@
         <v>258</v>
       </c>
       <c r="D41" t="s">
-        <v>1005</v>
+        <v>313</v>
       </c>
       <c r="G41" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4127,10 +4153,10 @@
         <v>258</v>
       </c>
       <c r="D42" t="s">
-        <v>475</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
-        <v>862</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4141,10 +4167,10 @@
         <v>258</v>
       </c>
       <c r="D43" t="s">
-        <v>864</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="s">
-        <v>863</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4155,10 +4181,10 @@
         <v>258</v>
       </c>
       <c r="D44" t="s">
-        <v>1006</v>
+        <v>474</v>
       </c>
       <c r="G44" t="s">
-        <v>303</v>
+        <v>861</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4169,10 +4195,10 @@
         <v>258</v>
       </c>
       <c r="D45" t="s">
-        <v>655</v>
+        <v>863</v>
       </c>
       <c r="G45" t="s">
-        <v>461</v>
+        <v>862</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4183,10 +4209,10 @@
         <v>258</v>
       </c>
       <c r="D46" t="s">
-        <v>305</v>
+        <v>1001</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4197,10 +4223,10 @@
         <v>258</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>654</v>
       </c>
       <c r="G47" t="s">
-        <v>309</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4211,69 +4237,69 @@
         <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>905</v>
+        <v>304</v>
       </c>
       <c r="G48" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="G49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+      <c r="G50" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+      <c r="G51" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -4281,105 +4307,105 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" t="s">
+        <v>273</v>
+      </c>
+      <c r="D59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" t="s">
         <v>292</v>
       </c>
-      <c r="E54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>271</v>
-      </c>
-      <c r="B55" t="s">
-        <v>274</v>
-      </c>
-      <c r="D55" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>271</v>
-      </c>
-      <c r="B56" t="s">
-        <v>272</v>
-      </c>
-      <c r="D56" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -4387,27 +4413,27 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>95</v>
+      <c r="D62" t="s">
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -4415,13 +4441,13 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -4429,10 +4455,10 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4442,11 +4468,11 @@
       <c r="B65" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>276</v>
+      <c r="D65" t="s">
+        <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4456,11 +4482,11 @@
       <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="D66" t="s">
-        <v>301</v>
+      <c r="D66" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4471,10 +4497,10 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>812</v>
+        <v>138</v>
       </c>
       <c r="E67" t="s">
-        <v>765</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4482,10 +4508,13 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4493,10 +4522,13 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>284</v>
-      </c>
-      <c r="D69" t="s">
-        <v>296</v>
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E69" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4504,66 +4536,60 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>462</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>463</v>
+        <v>300</v>
+      </c>
+      <c r="E70" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>811</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>764</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
-      </c>
-      <c r="E73" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E74" t="s">
-        <v>82</v>
+        <v>461</v>
+      </c>
+      <c r="D74" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4574,10 +4600,10 @@
         <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4588,10 +4614,10 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4602,10 +4628,10 @@
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4615,11 +4641,11 @@
       <c r="B78" t="s">
         <v>30</v>
       </c>
-      <c r="D78" t="s">
-        <v>252</v>
+      <c r="D78" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="E78" t="s">
-        <v>244</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4630,10 +4656,10 @@
         <v>30</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="E79" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4644,10 +4670,10 @@
         <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>813</v>
+        <v>220</v>
       </c>
       <c r="E80" t="s">
-        <v>803</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4658,10 +4684,10 @@
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>814</v>
+        <v>221</v>
       </c>
       <c r="E81" t="s">
-        <v>765</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4672,10 +4698,10 @@
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>924</v>
+        <v>252</v>
       </c>
       <c r="E82" t="s">
-        <v>920</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4683,10 +4709,13 @@
         <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>253</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4694,10 +4723,13 @@
         <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D84" t="s">
-        <v>42</v>
+        <v>812</v>
+      </c>
+      <c r="E84" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,13 +4737,13 @@
         <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>51</v>
-      </c>
-      <c r="F85" t="s">
-        <v>3</v>
+        <v>813</v>
+      </c>
+      <c r="E85" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4719,13 +4751,13 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
-      </c>
-      <c r="F86" t="s">
-        <v>24</v>
+        <v>923</v>
+      </c>
+      <c r="E86" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4733,13 +4765,10 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>64</v>
-      </c>
-      <c r="F87" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4747,13 +4776,10 @@
         <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
-      </c>
-      <c r="F88" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4764,10 +4790,10 @@
         <v>45</v>
       </c>
       <c r="D89" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="F89" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4777,11 +4803,11 @@
       <c r="B90" t="s">
         <v>45</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>251</v>
+      <c r="D90" t="s">
+        <v>52</v>
       </c>
       <c r="F90" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4792,10 +4818,10 @@
         <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="F91" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4806,10 +4832,10 @@
         <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4820,10 +4846,10 @@
         <v>45</v>
       </c>
       <c r="D93" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="F93" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4833,11 +4859,11 @@
       <c r="B94" t="s">
         <v>45</v>
       </c>
-      <c r="D94" t="s">
-        <v>815</v>
+      <c r="D94" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="F94" t="s">
-        <v>765</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,10 +4871,13 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>254</v>
+      </c>
+      <c r="F95" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4856,32 +4885,85 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="F96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>32</v>
       </c>
       <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" t="s">
+        <v>298</v>
+      </c>
+      <c r="F97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" t="s">
+        <v>814</v>
+      </c>
+      <c r="F98" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" t="s">
+        <v>461</v>
+      </c>
+      <c r="D101" t="s">
         <v>462</v>
       </c>
-      <c r="D97" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>133</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B102" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" t="s">
         <v>267</v>
-      </c>
-      <c r="D98" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4894,9 +4976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4932,10 +5012,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
@@ -4949,7 +5029,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -4968,10 +5048,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
@@ -4985,16 +5065,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="1"/>
@@ -5087,13 +5167,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" t="s">
         <v>140</v>
@@ -5104,13 +5184,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5118,13 +5198,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5132,7 +5212,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -5155,7 +5235,7 @@
         <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5298,13 +5378,13 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5312,13 +5392,13 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5326,13 +5406,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E27" t="s">
         <v>140</v>
@@ -5371,13 +5451,13 @@
         <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5408,26 +5488,26 @@
         <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" t="s">
         <v>266</v>
-      </c>
-      <c r="B33" t="s">
-        <v>267</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
         <v>258</v>
@@ -5439,12 +5519,12 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -5543,24 +5623,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
         <v>281</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>282</v>
-      </c>
-      <c r="C2" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5570,10 +5650,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5603,13 +5683,13 @@
         <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5629,13 +5709,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5643,25 +5723,25 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5681,7 +5761,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5701,7 +5781,7 @@
         <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5721,10 +5801,10 @@
         <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5744,13 +5824,13 @@
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5770,7 +5850,7 @@
         <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5790,7 +5870,7 @@
         <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5810,7 +5890,7 @@
         <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5830,7 +5910,7 @@
         <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5850,7 +5930,7 @@
         <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5870,7 +5950,7 @@
         <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5890,7 +5970,7 @@
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5910,7 +5990,7 @@
         <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5930,7 +6010,7 @@
         <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5950,7 +6030,7 @@
         <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5970,7 +6050,7 @@
         <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5978,7 +6058,7 @@
         <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -5987,10 +6067,10 @@
         <v>196</v>
       </c>
       <c r="E19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6010,7 +6090,7 @@
         <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6030,7 +6110,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6050,7 +6130,7 @@
         <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6070,7 +6150,7 @@
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6087,10 +6167,10 @@
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6107,10 +6187,10 @@
         <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6130,7 +6210,7 @@
         <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6138,19 +6218,19 @@
         <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C27" t="s">
         <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6158,7 +6238,7 @@
         <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -6170,7 +6250,7 @@
         <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6178,19 +6258,19 @@
         <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6198,19 +6278,19 @@
         <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D30" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6218,19 +6298,19 @@
         <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6238,19 +6318,19 @@
         <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E32" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6258,19 +6338,33 @@
         <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C33" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E33" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6280,10 +6374,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6337,13 +6431,13 @@
         <v>258</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6378,13 +6472,13 @@
         <v>71</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6392,7 +6486,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -6419,10 +6513,10 @@
         <v>73</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -6431,7 +6525,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
@@ -6458,10 +6552,10 @@
         <v>73</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -6497,16 +6591,16 @@
         <v>72</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -6541,13 +6635,13 @@
         <v>74</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6582,13 +6676,13 @@
         <v>72</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6620,10 +6714,10 @@
         <v>72</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M8" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="N8" s="4"/>
     </row>
@@ -6659,13 +6753,13 @@
         <v>72</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6673,7 +6767,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>158</v>
@@ -6682,10 +6776,10 @@
         <v>159</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>3</v>
@@ -6700,13 +6794,13 @@
         <v>72</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6738,13 +6832,13 @@
         <v>74</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6755,34 +6849,34 @@
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>818</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6814,16 +6908,16 @@
         <v>72</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6831,7 +6925,7 @@
         <v>110</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>162</v>
@@ -6843,7 +6937,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>2</v>
@@ -6855,16 +6949,16 @@
         <v>72</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6896,13 +6990,13 @@
         <v>72</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6910,7 +7004,7 @@
         <v>112</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>168</v>
@@ -6934,16 +7028,16 @@
         <v>72</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6951,10 +7045,10 @@
         <v>112</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>169</v>
@@ -6976,13 +7070,13 @@
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6990,7 +7084,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>171</v>
@@ -7014,10 +7108,10 @@
         <v>72</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7049,16 +7143,16 @@
         <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7090,16 +7184,16 @@
         <v>72</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7110,10 +7204,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>24</v>
@@ -7131,16 +7225,16 @@
         <v>72</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7151,10 +7245,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
@@ -7173,13 +7267,13 @@
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7211,13 +7305,13 @@
         <v>72</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7249,16 +7343,16 @@
         <v>74</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7290,13 +7384,13 @@
         <v>74</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7331,13 +7425,13 @@
         <v>72</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N26" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7369,16 +7463,16 @@
         <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7389,16 +7483,16 @@
         <v>17</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D28" t="s">
         <v>702</v>
-      </c>
-      <c r="D28" t="s">
-        <v>703</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>2</v>
@@ -7410,13 +7504,13 @@
         <v>71</v>
       </c>
       <c r="K28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N28" s="4"/>
     </row>
@@ -7428,34 +7522,34 @@
         <v>17</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="D29" t="s">
         <v>763</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>767</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>72</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7466,16 +7560,16 @@
         <v>17</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D30" t="s">
         <v>800</v>
-      </c>
-      <c r="D30" t="s">
-        <v>801</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>3</v>
@@ -7490,13 +7584,13 @@
         <v>74</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N30" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -7507,16 +7601,16 @@
         <v>17</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="D31" t="s">
         <v>807</v>
-      </c>
-      <c r="D31" t="s">
-        <v>808</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>3</v>
@@ -7531,13 +7625,13 @@
         <v>72</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M31" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="N31" s="4" t="s">
         <v>810</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -7548,16 +7642,16 @@
         <v>17</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>82</v>
@@ -7569,13 +7663,13 @@
         <v>74</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -7586,16 +7680,16 @@
         <v>17</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>82</v>
@@ -7607,13 +7701,13 @@
         <v>74</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7621,7 +7715,7 @@
         <v>227</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>121</v>
@@ -7645,16 +7739,16 @@
         <v>73</v>
       </c>
       <c r="K34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7686,13 +7780,13 @@
         <v>71</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -7724,16 +7818,16 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -7765,13 +7859,13 @@
         <v>71</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -7803,13 +7897,13 @@
         <v>72</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N38" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -7844,13 +7938,13 @@
         <v>111</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N39" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -7861,16 +7955,16 @@
         <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D40" t="s">
+        <v>918</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" t="s">
         <v>920</v>
-      </c>
-      <c r="F40" t="s">
-        <v>921</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>3</v>
@@ -7885,13 +7979,13 @@
         <v>74</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -7902,16 +7996,16 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
+        <v>926</v>
+      </c>
+      <c r="D41" t="s">
         <v>927</v>
-      </c>
-      <c r="D41" t="s">
-        <v>928</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>2</v>
@@ -7920,14 +8014,17 @@
         <v>97</v>
       </c>
       <c r="I41" s="4"/>
+      <c r="K41" t="s">
+        <v>930</v>
+      </c>
       <c r="L41" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -7959,13 +8056,13 @@
         <v>73</v>
       </c>
       <c r="L42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N42" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -8000,10 +8097,10 @@
         <v>73</v>
       </c>
       <c r="L43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -8035,13 +8132,13 @@
         <v>74</v>
       </c>
       <c r="L44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M44" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="N44" t="s">
         <v>700</v>
-      </c>
-      <c r="N44" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -8073,13 +8170,13 @@
         <v>73</v>
       </c>
       <c r="K45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -8093,7 +8190,7 @@
         <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
@@ -8111,13 +8208,13 @@
         <v>74</v>
       </c>
       <c r="L46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M46" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N46" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -8152,10 +8249,10 @@
         <v>72</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -8166,16 +8263,16 @@
         <v>78</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>920</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>921</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>3</v>
@@ -8190,13 +8287,13 @@
         <v>74</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M48" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -8231,10 +8328,10 @@
         <v>71</v>
       </c>
       <c r="L49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -8266,10 +8363,10 @@
         <v>71</v>
       </c>
       <c r="L50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M50" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -8304,7 +8401,7 @@
         <v>71</v>
       </c>
       <c r="L51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -8336,10 +8433,10 @@
         <v>73</v>
       </c>
       <c r="K52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -8374,7 +8471,7 @@
         <v>71</v>
       </c>
       <c r="L53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -8406,7 +8503,7 @@
         <v>74</v>
       </c>
       <c r="L54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -8438,10 +8535,10 @@
         <v>72</v>
       </c>
       <c r="K55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -8473,7 +8570,7 @@
         <v>74</v>
       </c>
       <c r="L56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -8508,7 +8605,7 @@
         <v>74</v>
       </c>
       <c r="L57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -8540,16 +8637,16 @@
         <v>72</v>
       </c>
       <c r="K58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M58" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N58" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -8584,7 +8681,7 @@
         <v>74</v>
       </c>
       <c r="L59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -8616,7 +8713,7 @@
         <v>72</v>
       </c>
       <c r="L60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -8648,7 +8745,7 @@
         <v>74</v>
       </c>
       <c r="L61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -8680,7 +8777,7 @@
         <v>72</v>
       </c>
       <c r="L62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -8712,7 +8809,7 @@
         <v>74</v>
       </c>
       <c r="L63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -8744,10 +8841,10 @@
         <v>72</v>
       </c>
       <c r="K64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -8782,7 +8879,7 @@
         <v>71</v>
       </c>
       <c r="L65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -8817,7 +8914,7 @@
         <v>71</v>
       </c>
       <c r="L66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -8852,10 +8949,10 @@
         <v>73</v>
       </c>
       <c r="L67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M67" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -8890,7 +8987,7 @@
         <v>74</v>
       </c>
       <c r="L68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -8925,7 +9022,7 @@
         <v>74</v>
       </c>
       <c r="L69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -8933,19 +9030,19 @@
         <v>901</v>
       </c>
       <c r="B70" t="s">
+        <v>580</v>
+      </c>
+      <c r="C70" t="s">
+        <v>582</v>
+      </c>
+      <c r="D70" t="s">
+        <v>583</v>
+      </c>
+      <c r="E70" t="s">
         <v>581</v>
       </c>
-      <c r="C70" t="s">
-        <v>583</v>
-      </c>
-      <c r="D70" t="s">
-        <v>584</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>582</v>
-      </c>
-      <c r="F70" t="s">
-        <v>583</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>3</v>
@@ -8954,19 +9051,19 @@
         <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J70" t="s">
         <v>73</v>
       </c>
       <c r="L70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N70" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -8974,13 +9071,13 @@
         <v>902</v>
       </c>
       <c r="B71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C71" t="s">
+        <v>608</v>
+      </c>
+      <c r="D71" t="s">
         <v>609</v>
-      </c>
-      <c r="D71" t="s">
-        <v>610</v>
       </c>
       <c r="E71" t="s">
         <v>3</v>
@@ -8998,13 +9095,13 @@
         <v>73</v>
       </c>
       <c r="L71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M71" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N71" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -9015,16 +9112,16 @@
         <v>63</v>
       </c>
       <c r="C72" t="s">
+        <v>693</v>
+      </c>
+      <c r="D72" t="s">
         <v>694</v>
-      </c>
-      <c r="D72" t="s">
-        <v>695</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>3</v>
@@ -9039,10 +9136,10 @@
         <v>73</v>
       </c>
       <c r="L72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M72" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -9053,7 +9150,7 @@
         <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D73" t="s">
         <v>228</v>
@@ -9062,7 +9159,7 @@
         <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>3</v>
@@ -9077,10 +9174,10 @@
         <v>74</v>
       </c>
       <c r="L73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M73" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -9115,10 +9212,10 @@
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9153,10 +9250,10 @@
         <v>73</v>
       </c>
       <c r="L75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9167,10 +9264,10 @@
         <v>130</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D76" t="s">
         <v>797</v>
-      </c>
-      <c r="D76" t="s">
-        <v>798</v>
       </c>
       <c r="E76" t="s">
         <v>24</v>
@@ -9191,10 +9288,10 @@
         <v>74</v>
       </c>
       <c r="L76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9225,14 +9322,17 @@
       <c r="J77" t="s">
         <v>74</v>
       </c>
+      <c r="K77" t="s">
+        <v>1009</v>
+      </c>
       <c r="L77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="N77" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -9240,34 +9340,34 @@
         <v>905</v>
       </c>
       <c r="B78" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C78" t="s">
+        <v>780</v>
+      </c>
+      <c r="D78" t="s">
         <v>781</v>
       </c>
-      <c r="D78" t="s">
-        <v>782</v>
-      </c>
       <c r="E78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F78" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H78" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J78" t="s">
         <v>73</v>
       </c>
       <c r="L78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -9275,13 +9375,13 @@
         <v>906</v>
       </c>
       <c r="B79" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C79" t="s">
+        <v>778</v>
+      </c>
+      <c r="D79" t="s">
         <v>779</v>
-      </c>
-      <c r="D79" t="s">
-        <v>780</v>
       </c>
       <c r="E79" t="s">
         <v>24</v>
@@ -9299,13 +9399,13 @@
         <v>73</v>
       </c>
       <c r="K79" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M79" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -9313,13 +9413,13 @@
         <v>907</v>
       </c>
       <c r="B80" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C80" t="s">
         <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E80" t="s">
         <v>24</v>
@@ -9340,10 +9440,10 @@
         <v>74</v>
       </c>
       <c r="L80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M80" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -9351,34 +9451,34 @@
         <v>908</v>
       </c>
       <c r="B81" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C81" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D81" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E81" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F81" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H81" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J81" t="s">
         <v>73</v>
       </c>
       <c r="L81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M81" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -9386,34 +9486,34 @@
         <v>909</v>
       </c>
       <c r="B82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D82" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F82" t="s">
+        <v>773</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="H82" t="s">
         <v>774</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="H82" t="s">
-        <v>775</v>
       </c>
       <c r="J82" t="s">
         <v>73</v>
       </c>
       <c r="L82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M82" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -9421,19 +9521,19 @@
         <v>910</v>
       </c>
       <c r="B83" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C83" t="s">
+        <v>789</v>
+      </c>
+      <c r="D83" t="s">
         <v>790</v>
       </c>
-      <c r="D83" t="s">
-        <v>791</v>
-      </c>
       <c r="E83" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F83" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>24</v>
@@ -9445,10 +9545,10 @@
         <v>73</v>
       </c>
       <c r="L83" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M83" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -9456,13 +9556,13 @@
         <v>911</v>
       </c>
       <c r="B84" t="s">
+        <v>818</v>
+      </c>
+      <c r="C84" t="s">
         <v>819</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>820</v>
-      </c>
-      <c r="D84" t="s">
-        <v>821</v>
       </c>
       <c r="E84" t="s">
         <v>24</v>
@@ -9480,13 +9580,13 @@
         <v>73</v>
       </c>
       <c r="K84" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L84" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M84" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -9494,19 +9594,19 @@
         <v>912</v>
       </c>
       <c r="B85" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C85" t="s">
+        <v>822</v>
+      </c>
+      <c r="D85" t="s">
         <v>823</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
+        <v>764</v>
+      </c>
+      <c r="F85" t="s">
         <v>824</v>
-      </c>
-      <c r="E85" t="s">
-        <v>765</v>
-      </c>
-      <c r="F85" t="s">
-        <v>825</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>62</v>
@@ -9518,10 +9618,86 @@
         <v>73</v>
       </c>
       <c r="L85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M85" t="s">
-        <v>1003</v>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>913</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" t="s">
+        <v>53</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>41</v>
+      </c>
+      <c r="J86" t="s">
+        <v>73</v>
+      </c>
+      <c r="L86" t="s">
+        <v>284</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>914</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D87" t="s">
+        <v>797</v>
+      </c>
+      <c r="E87" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" t="s">
+        <v>209</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>198</v>
+      </c>
+      <c r="J87" t="s">
+        <v>73</v>
+      </c>
+      <c r="L87" t="s">
+        <v>284</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -9551,7 +9727,7 @@
         <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -9578,7 +9754,7 @@
         <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9637,48 +9813,48 @@
         <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="C12" t="s">
         <v>616</v>
-      </c>
-      <c r="C12" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>802</v>
+      </c>
+      <c r="B13" t="s">
         <v>803</v>
       </c>
-      <c r="B13" t="s">
-        <v>804</v>
-      </c>
       <c r="C13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C14" t="s">
         <v>805</v>
-      </c>
-      <c r="C14" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -9742,8 +9918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9761,25 +9937,25 @@
         <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -9787,19 +9963,19 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E2" t="s">
         <v>635</v>
       </c>
-      <c r="E2" t="s">
-        <v>636</v>
-      </c>
       <c r="G2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -9810,45 +9986,45 @@
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E3" t="s">
         <v>635</v>
       </c>
-      <c r="E3" t="s">
-        <v>636</v>
-      </c>
       <c r="G3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E4" t="s">
         <v>474</v>
       </c>
-      <c r="E4" t="s">
-        <v>475</v>
-      </c>
       <c r="G4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -9856,22 +10032,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
+        <v>862</v>
+      </c>
+      <c r="C5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E5" t="s">
         <v>863</v>
       </c>
-      <c r="C5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="E5" t="s">
-        <v>864</v>
-      </c>
       <c r="G5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -9879,19 +10055,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E6" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="G6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -9899,19 +10075,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" t="s">
         <v>304</v>
       </c>
-      <c r="E7" t="s">
-        <v>305</v>
-      </c>
       <c r="G7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H7">
         <v>23</v>
@@ -9919,19 +10095,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H8">
         <v>127</v>
@@ -9939,19 +10115,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E9" t="s">
-        <v>310</v>
-      </c>
       <c r="G9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H9">
         <v>398</v>
@@ -9959,22 +10135,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" t="s">
         <v>312</v>
       </c>
-      <c r="B10" t="s">
-        <v>629</v>
-      </c>
-      <c r="C10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" t="s">
-        <v>313</v>
-      </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -9982,22 +10158,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H11">
         <v>271</v>
@@ -10005,22 +10181,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" t="s">
         <v>317</v>
       </c>
-      <c r="E12" t="s">
-        <v>318</v>
-      </c>
       <c r="G12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H12">
         <v>2944</v>
@@ -10028,36 +10204,36 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E14" t="s">
         <v>658</v>
       </c>
-      <c r="E14" t="s">
-        <v>659</v>
-      </c>
       <c r="G14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -10065,19 +10241,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H15">
         <v>9</v>
@@ -10085,19 +10261,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>661</v>
+      </c>
+      <c r="C16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>663</v>
-      </c>
       <c r="E16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H16">
         <v>6</v>
@@ -10105,19 +10281,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>704</v>
+      </c>
+      <c r="C17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="C17" t="s">
-        <v>324</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" t="s">
         <v>706</v>
       </c>
-      <c r="E17" t="s">
-        <v>707</v>
-      </c>
       <c r="G17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H17">
         <v>19</v>
@@ -10125,19 +10301,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D18" t="s">
+        <v>858</v>
+      </c>
+      <c r="E18" t="s">
         <v>859</v>
       </c>
-      <c r="E18" t="s">
-        <v>860</v>
-      </c>
       <c r="G18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H18">
         <v>11</v>
@@ -10145,19 +10321,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E19" t="s">
         <v>904</v>
       </c>
-      <c r="E19" t="s">
-        <v>905</v>
-      </c>
       <c r="G19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -10165,19 +10341,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>930</v>
+      </c>
+      <c r="C20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="C20" t="s">
-        <v>324</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>932</v>
-      </c>
       <c r="E20" t="s">
-        <v>933</v>
+        <v>1008</v>
       </c>
       <c r="G20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -10185,59 +10361,56 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C21" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
+      </c>
+      <c r="E21" t="s">
+        <v>974</v>
       </c>
       <c r="G21" t="s">
         <v>403</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
       <c r="C22" t="s">
+        <v>982</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>978</v>
-      </c>
       <c r="E22" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
       <c r="G22" t="s">
-        <v>404</v>
+        <v>403</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="C23" t="s">
-        <v>987</v>
+        <v>324</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="E23" t="s">
-        <v>993</v>
-      </c>
-      <c r="G23" t="s">
-        <v>404</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>997</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -10248,10 +10421,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159:XFD159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10268,7 +10441,7 @@
         <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>259</v>
@@ -10282,424 +10455,424 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>1015</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D25" t="s">
         <v>399</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>400</v>
-      </c>
-      <c r="E25" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -10707,16 +10880,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D27" t="s">
         <v>406</v>
-      </c>
-      <c r="D27" t="s">
-        <v>407</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
@@ -10724,16 +10897,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D28" t="s">
         <v>408</v>
-      </c>
-      <c r="D28" t="s">
-        <v>409</v>
       </c>
       <c r="E28" t="s">
         <v>75</v>
@@ -10741,16 +10914,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29" t="s">
+        <v>409</v>
+      </c>
+      <c r="D29" t="s">
         <v>410</v>
-      </c>
-      <c r="D29" t="s">
-        <v>411</v>
       </c>
       <c r="E29" t="s">
         <v>75</v>
@@ -10758,16 +10931,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" t="s">
+        <v>411</v>
+      </c>
+      <c r="D30" t="s">
         <v>412</v>
-      </c>
-      <c r="D30" t="s">
-        <v>413</v>
       </c>
       <c r="E30" t="s">
         <v>75</v>
@@ -10775,16 +10948,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C31" t="s">
+        <v>413</v>
+      </c>
+      <c r="D31" t="s">
         <v>414</v>
-      </c>
-      <c r="D31" t="s">
-        <v>415</v>
       </c>
       <c r="E31" t="s">
         <v>75</v>
@@ -10792,16 +10965,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E32" t="s">
         <v>75</v>
@@ -10809,16 +10982,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E33" t="s">
         <v>75</v>
@@ -10826,16 +10999,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E34" t="s">
         <v>75</v>
@@ -10843,16 +11016,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E35" t="s">
         <v>75</v>
@@ -10860,866 +11033,866 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C36" t="s">
+        <v>419</v>
+      </c>
+      <c r="D36" t="s">
         <v>420</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>421</v>
-      </c>
-      <c r="E36" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D37" t="s">
         <v>423</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>424</v>
-      </c>
-      <c r="E37" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C38" t="s">
+        <v>425</v>
+      </c>
+      <c r="D38" t="s">
         <v>426</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>427</v>
-      </c>
-      <c r="E38" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
+        <v>428</v>
+      </c>
+      <c r="D39" t="s">
         <v>429</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>430</v>
-      </c>
-      <c r="E39" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s">
+        <v>431</v>
+      </c>
+      <c r="D40" t="s">
         <v>432</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>433</v>
-      </c>
-      <c r="E40" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s">
+        <v>434</v>
+      </c>
+      <c r="D41" t="s">
         <v>435</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>436</v>
-      </c>
-      <c r="E41" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C42" t="s">
+        <v>437</v>
+      </c>
+      <c r="D42" t="s">
         <v>438</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>439</v>
-      </c>
-      <c r="E42" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D43" t="s">
+        <v>867</v>
+      </c>
+      <c r="E43" t="s">
         <v>868</v>
-      </c>
-      <c r="E43" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>866</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C46" t="s">
+        <v>443</v>
+      </c>
+      <c r="D46" t="s">
         <v>444</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>445</v>
-      </c>
-      <c r="E46" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D47" t="s">
         <v>447</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>448</v>
-      </c>
-      <c r="E47" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B48" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" t="s">
         <v>450</v>
-      </c>
-      <c r="E48" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C49" t="s">
+        <v>452</v>
+      </c>
+      <c r="D49" t="s">
         <v>453</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>454</v>
-      </c>
-      <c r="E49" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B50" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C50" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50" t="s">
         <v>456</v>
       </c>
-      <c r="D50" t="s">
-        <v>457</v>
-      </c>
       <c r="E50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C51" t="s">
+        <v>457</v>
+      </c>
+      <c r="D51" t="s">
         <v>458</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>459</v>
-      </c>
-      <c r="E51" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B52" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C52" t="s">
+        <v>475</v>
+      </c>
+      <c r="D52" t="s">
         <v>476</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>477</v>
-      </c>
-      <c r="E52" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B53" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C53" t="s">
+        <v>478</v>
+      </c>
+      <c r="D53" t="s">
         <v>479</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>480</v>
-      </c>
-      <c r="E53" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C54" t="s">
+        <v>481</v>
+      </c>
+      <c r="D54" t="s">
         <v>482</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>483</v>
-      </c>
-      <c r="E54" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B55" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C55" t="s">
+        <v>484</v>
+      </c>
+      <c r="D55" t="s">
         <v>485</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>486</v>
-      </c>
-      <c r="E55" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B56" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C56" t="s">
+        <v>487</v>
+      </c>
+      <c r="D56" t="s">
         <v>488</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>489</v>
-      </c>
-      <c r="E56" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B57" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C57" t="s">
+        <v>490</v>
+      </c>
+      <c r="D57" t="s">
         <v>491</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>492</v>
-      </c>
-      <c r="E57" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B58" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C58" t="s">
+        <v>493</v>
+      </c>
+      <c r="D58" t="s">
         <v>494</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>495</v>
-      </c>
-      <c r="E58" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C59" t="s">
+        <v>496</v>
+      </c>
+      <c r="D59" t="s">
         <v>497</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>498</v>
-      </c>
-      <c r="E59" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B60" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C60" t="s">
+        <v>499</v>
+      </c>
+      <c r="D60" t="s">
         <v>500</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>501</v>
-      </c>
-      <c r="E60" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B61" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C61" t="s">
+        <v>502</v>
+      </c>
+      <c r="D61" t="s">
         <v>503</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>504</v>
-      </c>
-      <c r="E61" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B62" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C62" t="s">
+        <v>505</v>
+      </c>
+      <c r="D62" t="s">
         <v>506</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>507</v>
-      </c>
-      <c r="E62" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B63" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C63" t="s">
+        <v>508</v>
+      </c>
+      <c r="D63" t="s">
         <v>509</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>510</v>
-      </c>
-      <c r="E63" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B64" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C64" t="s">
+        <v>511</v>
+      </c>
+      <c r="D64" t="s">
         <v>512</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>513</v>
-      </c>
-      <c r="E64" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B65" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C65" t="s">
+        <v>514</v>
+      </c>
+      <c r="D65" t="s">
         <v>515</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>516</v>
-      </c>
-      <c r="E65" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B66" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C66" t="s">
+        <v>517</v>
+      </c>
+      <c r="D66" t="s">
         <v>518</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>519</v>
-      </c>
-      <c r="E66" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B67" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C67" t="s">
+        <v>520</v>
+      </c>
+      <c r="D67" t="s">
         <v>521</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>522</v>
-      </c>
-      <c r="E67" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C68" t="s">
+        <v>523</v>
+      </c>
+      <c r="D68" t="s">
         <v>524</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>525</v>
-      </c>
-      <c r="E68" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B69" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C69" t="s">
+        <v>526</v>
+      </c>
+      <c r="D69" t="s">
         <v>527</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>528</v>
-      </c>
-      <c r="E69" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B70" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C70" t="s">
+        <v>529</v>
+      </c>
+      <c r="D70" t="s">
         <v>530</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>531</v>
-      </c>
-      <c r="E70" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B71" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C71" t="s">
+        <v>532</v>
+      </c>
+      <c r="D71" t="s">
         <v>533</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>534</v>
-      </c>
-      <c r="E71" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B72" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C72" t="s">
+        <v>535</v>
+      </c>
+      <c r="D72" t="s">
         <v>536</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>537</v>
-      </c>
-      <c r="E72" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C73" t="s">
+        <v>538</v>
+      </c>
+      <c r="D73" t="s">
         <v>539</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>540</v>
-      </c>
-      <c r="E73" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B74" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C74" t="s">
+        <v>541</v>
+      </c>
+      <c r="D74" t="s">
         <v>542</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>543</v>
-      </c>
-      <c r="E74" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C75" t="s">
+        <v>544</v>
+      </c>
+      <c r="D75" t="s">
         <v>545</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>546</v>
-      </c>
-      <c r="E75" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C76" t="s">
+        <v>547</v>
+      </c>
+      <c r="D76" t="s">
         <v>548</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>549</v>
-      </c>
-      <c r="E76" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B77" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C77" t="s">
+        <v>550</v>
+      </c>
+      <c r="D77" t="s">
         <v>551</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>552</v>
-      </c>
-      <c r="E77" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B78" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C78" t="s">
+        <v>553</v>
+      </c>
+      <c r="D78" t="s">
         <v>554</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>555</v>
-      </c>
-      <c r="E78" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C79" t="s">
+        <v>556</v>
+      </c>
+      <c r="D79" t="s">
         <v>557</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>558</v>
-      </c>
-      <c r="E79" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B80" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C80" t="s">
+        <v>559</v>
+      </c>
+      <c r="D80" t="s">
         <v>560</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>561</v>
-      </c>
-      <c r="E80" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B81" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C81" t="s">
+        <v>562</v>
+      </c>
+      <c r="D81" t="s">
         <v>563</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>564</v>
-      </c>
-      <c r="E81" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C82" t="s">
+        <v>565</v>
+      </c>
+      <c r="D82" t="s">
         <v>566</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>567</v>
-      </c>
-      <c r="E82" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C83" t="s">
+        <v>568</v>
+      </c>
+      <c r="D83" t="s">
         <v>569</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>570</v>
-      </c>
-      <c r="E83" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C84" t="s">
+        <v>571</v>
+      </c>
+      <c r="D84" t="s">
         <v>572</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>573</v>
-      </c>
-      <c r="E84" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C85" t="s">
+        <v>574</v>
+      </c>
+      <c r="D85" t="s">
         <v>575</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>576</v>
-      </c>
-      <c r="E85" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C86" t="s">
+        <v>577</v>
+      </c>
+      <c r="D86" t="s">
         <v>578</v>
-      </c>
-      <c r="D86" t="s">
-        <v>579</v>
       </c>
       <c r="E86" t="s">
         <v>75</v>
@@ -11727,417 +11900,417 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C87" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="D87" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="E87" s="19" t="s">
         <v>871</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C88" s="19" t="s">
+        <v>872</v>
+      </c>
+      <c r="D88" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="E88" s="19" t="s">
         <v>874</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B89" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C89" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="D89" s="19" t="s">
         <v>876</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="E89" s="19" t="s">
         <v>877</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C90" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="D90" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="E90" s="19" t="s">
         <v>880</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B91" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B92" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C92" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="E92" s="19" t="s">
         <v>884</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B94" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C94" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="D94" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="E94" s="19" t="s">
         <v>888</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B95" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C95" s="19" t="s">
+        <v>889</v>
+      </c>
+      <c r="D95" s="19" t="s">
         <v>890</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="E95" s="19" t="s">
         <v>891</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B96" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C96" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D96" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="E96" s="19" t="s">
         <v>400</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B97" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C97" s="19" t="s">
+        <v>892</v>
+      </c>
+      <c r="D97" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="E97" s="19" t="s">
         <v>894</v>
-      </c>
-      <c r="E97" s="19" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C98" s="19" t="s">
+        <v>895</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>896</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="E98" s="19" t="s">
         <v>897</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B99" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C99" s="19" t="s">
+        <v>898</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="E99" s="19" t="s">
         <v>900</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C100" s="19" t="s">
+        <v>901</v>
+      </c>
+      <c r="D100" s="19" t="s">
         <v>902</v>
       </c>
-      <c r="D100" s="19" t="s">
-        <v>903</v>
-      </c>
       <c r="E100" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B101" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C101" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>588</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B102" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C102" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>590</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B103" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C103" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="D103" s="14" t="s">
         <v>592</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B104" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C104" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D104" s="14" t="s">
         <v>594</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B105" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C105" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D105" s="14" t="s">
         <v>596</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B106" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C106" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="D106" s="14" t="s">
         <v>598</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B107" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C107" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="D107" s="14" t="s">
         <v>600</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B108" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C108" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="D108" s="14" t="s">
         <v>602</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B109" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C109" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D109" s="14" t="s">
         <v>604</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>224</v>
       </c>
       <c r="D110" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>619</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C111" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="D111" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="D111" s="16" t="s">
+      <c r="E111" s="16" t="s">
         <v>622</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B112" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C112" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="D112" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="E112" s="16" t="s">
         <v>625</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -12145,13 +12318,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -12159,13 +12332,13 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C114" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D114" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -12173,13 +12346,13 @@
         <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C115" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D115" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -12187,296 +12360,296 @@
         <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C116" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D116" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B117" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D117" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="E117" s="18" t="s">
         <v>664</v>
-      </c>
-      <c r="E117" s="18" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B118" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C118" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D118" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="E118" s="18" t="s">
         <v>667</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B119" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C119" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="D119" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="E119" s="18" t="s">
         <v>670</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B120" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C120" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D120" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="E120" s="18" t="s">
         <v>673</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B121" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C121" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="D121" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="D121" s="18" t="s">
+      <c r="E121" s="18" t="s">
         <v>676</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B122" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C122" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="D122" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="E122" s="18" t="s">
         <v>679</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B123" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C123" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="D123" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="D123" s="19" t="s">
-        <v>709</v>
-      </c>
       <c r="E123" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B124" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C124" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="D124" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="D124" s="19" t="s">
-        <v>711</v>
-      </c>
       <c r="E124" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B125" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C125" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="D125" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="D125" s="19" t="s">
-        <v>713</v>
-      </c>
       <c r="E125" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B126" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C126" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="D126" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="D126" s="19" t="s">
-        <v>715</v>
-      </c>
       <c r="E126" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B127" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C127" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="D127" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="D127" s="19" t="s">
-        <v>717</v>
-      </c>
       <c r="E127" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B128" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C128" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="D128" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="D128" s="19" t="s">
-        <v>719</v>
-      </c>
       <c r="E128" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B129" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C129" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="D129" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="D129" s="19" t="s">
-        <v>721</v>
-      </c>
       <c r="E129" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B130" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C130" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="D130" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="D130" s="19" t="s">
-        <v>723</v>
-      </c>
       <c r="E130" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B131" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C131" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="D131" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="D131" s="19" t="s">
-        <v>725</v>
-      </c>
       <c r="E131" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B132" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C132" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="D132" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="D132" s="19" t="s">
-        <v>727</v>
-      </c>
       <c r="E132" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B133" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>108</v>
@@ -12487,429 +12660,429 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B134" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D134" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="E134" s="19" t="s">
         <v>504</v>
-      </c>
-      <c r="E134" s="19" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B135" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C135" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="D135" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="D135" s="19" t="s">
-        <v>731</v>
-      </c>
       <c r="E135" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B136" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C136" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="D136" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="D136" s="19" t="s">
-        <v>733</v>
-      </c>
       <c r="E136" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B137" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C137" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D137" s="19" t="s">
         <v>734</v>
       </c>
-      <c r="D137" s="19" t="s">
-        <v>735</v>
-      </c>
       <c r="E137" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B138" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C138" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="D138" s="19" t="s">
         <v>736</v>
       </c>
-      <c r="D138" s="19" t="s">
-        <v>737</v>
-      </c>
       <c r="E138" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B139" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C139" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="D139" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="D139" s="19" t="s">
-        <v>739</v>
-      </c>
       <c r="E139" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B140" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C140" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="D140" s="19" t="s">
         <v>740</v>
       </c>
-      <c r="D140" s="19" t="s">
-        <v>741</v>
-      </c>
       <c r="E140" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B141" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C141" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="D141" s="19" t="s">
         <v>742</v>
       </c>
-      <c r="D141" s="19" t="s">
-        <v>743</v>
-      </c>
       <c r="E141" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B142" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C142" t="s">
+        <v>826</v>
+      </c>
+      <c r="D142" t="s">
         <v>827</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>828</v>
-      </c>
-      <c r="E142" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C143" t="s">
+        <v>829</v>
+      </c>
+      <c r="D143" t="s">
         <v>830</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>831</v>
-      </c>
-      <c r="E143" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B144" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C144" t="s">
+        <v>832</v>
+      </c>
+      <c r="D144" t="s">
         <v>833</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>834</v>
-      </c>
-      <c r="E144" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B145" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C145" t="s">
+        <v>835</v>
+      </c>
+      <c r="D145" t="s">
         <v>836</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>837</v>
-      </c>
-      <c r="E145" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B146" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C146" t="s">
+        <v>838</v>
+      </c>
+      <c r="D146" t="s">
         <v>839</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>840</v>
-      </c>
-      <c r="E146" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B147" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C147" t="s">
+        <v>841</v>
+      </c>
+      <c r="D147" t="s">
         <v>842</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>843</v>
-      </c>
-      <c r="E147" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B148" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C148" t="s">
         <v>160</v>
       </c>
       <c r="D148" t="s">
+        <v>844</v>
+      </c>
+      <c r="E148" t="s">
         <v>845</v>
-      </c>
-      <c r="E148" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B149" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C149" t="s">
+        <v>846</v>
+      </c>
+      <c r="D149" t="s">
         <v>847</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>848</v>
-      </c>
-      <c r="E149" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B150" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C150" t="s">
+        <v>849</v>
+      </c>
+      <c r="D150" t="s">
         <v>850</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>851</v>
-      </c>
-      <c r="E150" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B151" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C151" t="s">
+        <v>852</v>
+      </c>
+      <c r="D151" t="s">
         <v>853</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>854</v>
-      </c>
-      <c r="E151" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B152" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C152" t="s">
+        <v>855</v>
+      </c>
+      <c r="D152" t="s">
         <v>856</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>857</v>
-      </c>
-      <c r="E152" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B153" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C153" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="D153" s="21" t="s">
         <v>906</v>
       </c>
-      <c r="D153" s="21" t="s">
+      <c r="E153" s="21" t="s">
         <v>907</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B154" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C154" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="D154" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="D154" s="21" t="s">
+      <c r="E154" s="21" t="s">
         <v>910</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B155" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C155" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="D155" s="21" t="s">
         <v>912</v>
       </c>
-      <c r="D155" s="21" t="s">
+      <c r="E155" s="21" t="s">
         <v>913</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B156" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D156" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B157" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D157" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B158" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D158" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B159" t="s">
-        <v>970</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>976</v>
+        <v>971</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>975</v>
       </c>
       <c r="D159" t="s">
         <v>977</v>
@@ -12917,65 +13090,79 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B160" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D160" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B161" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D161" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
       <c r="B162" t="s">
-        <v>973</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>985</v>
+        <v>986</v>
+      </c>
+      <c r="C162" t="s">
+        <v>991</v>
       </c>
       <c r="D162" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="B163" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="C163" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
       <c r="D163" t="s">
-        <v>996</v>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C164" t="s">
+        <v>988</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C37 C160:C162" numberStoredAsText="1"/>
+    <ignoredError sqref="C37 C159:C161" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>